--- a/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
+++ b/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED025D-6AED-4910-9D44-86250EDECE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B694C5-55D6-4774-9CEF-FC7A8295F9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$164</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="240">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -746,6 +746,12 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>В ОБВЯЗКЕ вар п/о</t>
+  </si>
+  <si>
+    <t>С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1932,11 +1938,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1686"/>
+  <dimension ref="A1:M1688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
+      <pane ySplit="9" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2087,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D161,4)</f>
+        <f>RIGHT(D11:D163,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2112,7 +2118,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D162,4)</f>
+        <f>RIGHT(D12:D164,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2137,7 +2143,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D162,4)</f>
+        <f>RIGHT(D13:D164,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2161,7 +2167,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D163,4)</f>
+        <f>RIGHT(D14:D165,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2185,7 +2191,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D164,4)</f>
+        <f>RIGHT(D15:D166,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2209,7 +2215,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D164,4)</f>
+        <f>RIGHT(D16:D166,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2237,9 +2243,9 @@
       </c>
       <c r="J16" s="39"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D17:D167,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2263,9 +2269,9 @@
       <c r="I17" s="14"/>
       <c r="J17" s="39"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D168,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2289,9 +2295,9 @@
       <c r="I18" s="14"/>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D169,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2313,9 +2319,9 @@
       <c r="I19" s="14"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D170,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2343,9 +2349,9 @@
       </c>
       <c r="J20" s="39"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D171,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2373,9 +2379,9 @@
       </c>
       <c r="J21" s="39"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D172,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2403,9 +2409,9 @@
       </c>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D173,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2433,9 +2439,9 @@
       </c>
       <c r="J23" s="39"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D175,4)</f>
+        <f>RIGHT(D24:D177,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2457,9 +2463,9 @@
       <c r="I24" s="14"/>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D175,4)</f>
+        <f>RIGHT(D25:D177,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2481,9 +2487,9 @@
       <c r="I25" s="14"/>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D176,4)</f>
+        <f>RIGHT(D26:D178,4)</f>
         <v>5247</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2511,9 +2517,9 @@
       </c>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D179,4)</f>
+        <f>RIGHT(D27:D181,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2541,9 +2547,9 @@
       </c>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D180,4)</f>
+        <f>RIGHT(D28:D182,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2571,9 +2577,9 @@
       </c>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D181,4)</f>
+        <f>RIGHT(D29:D183,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2597,9 +2603,9 @@
       <c r="I29" s="14"/>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D182,4)</f>
+        <f>RIGHT(D30:D184,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2621,83 +2627,83 @@
       <c r="I30" s="14"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D182,4)</f>
-        <v>5851</v>
+        <f>RIGHT(D31:D185,4)</f>
+        <v>6877</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="28">
-        <v>1001012505851</v>
+        <v>1001015676877</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F31" s="23"/>
       <c r="G31" s="23">
-        <f>E31*1</f>
+        <f>E31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I31" s="14">
-        <v>60</v>
-      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="39"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="82"/>
+    </row>
+    <row r="32" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D183,4)</f>
-        <v>6159</v>
+        <f>RIGHT(D32:D186,4)</f>
+        <v>6888</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D32" s="28">
-        <v>1001014486159</v>
+        <v>1001016366888</v>
       </c>
       <c r="E32" s="24"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G32" s="23">
-        <f>E32*1</f>
+        <f>F32*E32</f>
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="39"/>
+      <c r="K32" s="82"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D183,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D33:D184,4)</f>
+        <v>5851</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D33" s="28">
-        <v>1001014486158</v>
+        <v>1001012505851</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G33" s="23">
-        <f>E33*0.4</f>
+        <f>E33*1</f>
         <v>0</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I33" s="14">
         <v>60</v>
       </c>
@@ -2706,44 +2712,40 @@
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
         <f>RIGHT(D34:D185,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B34" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>26</v>
+        <v>6159</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D34" s="28">
-        <v>1001012816340</v>
+        <v>1001014486159</v>
       </c>
       <c r="E34" s="24"/>
-      <c r="F34" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="F34" s="23"/>
       <c r="G34" s="23">
-        <f>E34*0.5</f>
+        <f>E34*1</f>
         <v>0</v>
       </c>
       <c r="H34" s="14"/>
-      <c r="I34" s="14">
-        <v>60</v>
-      </c>
+      <c r="I34" s="14"/>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D183,4)</f>
-        <v>6353</v>
+        <f>RIGHT(D35:D185,4)</f>
+        <v>6158</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="28">
-        <v>1001012506353</v>
+        <v>1001014486158</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="23">
@@ -2753,101 +2755,105 @@
         <f>E35*0.4</f>
         <v>0</v>
       </c>
-      <c r="H35" s="14">
-        <v>3.2</v>
-      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="14">
         <v>60</v>
       </c>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D184,4)</f>
+        <f>RIGHT(D36:D187,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="28">
+        <v>1001012816340</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="23">
+        <f>E36*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14">
+        <v>60</v>
+      </c>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="94" t="str">
+        <f>RIGHT(D37:D185,4)</f>
+        <v>6353</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="28">
+        <v>1001012506353</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="23">
+        <f>E37*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I37" s="14">
+        <v>60</v>
+      </c>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="94" t="str">
+        <f>RIGHT(D38:D186,4)</f>
         <v/>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B38" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="75"/>
-    </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D187,4)</f>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="94" t="str">
+        <f>RIGHT(D39:D189,4)</f>
         <v>6870</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B39" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C39" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D39" s="28">
         <v>1001023856870</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23">
-        <f>E37*1</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="82"/>
-    </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D189,4)</f>
-        <v>7038</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="28">
-        <v>1001023857038</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23">
-        <f>E38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="82"/>
-    </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D190,4)</f>
-        <v>7040</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="28">
-        <v>1001025027040</v>
-      </c>
       <c r="E39" s="24"/>
-      <c r="F39" s="23">
-        <v>0.27</v>
-      </c>
+      <c r="F39" s="23"/>
       <c r="G39" s="23">
-        <f>F39*E39</f>
+        <f>E39*1</f>
         <v>0</v>
       </c>
       <c r="H39" s="14"/>
@@ -2857,17 +2863,17 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D189,4)</f>
-        <v>7075</v>
+        <f>RIGHT(D40:D191,4)</f>
+        <v>7038</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="28">
-        <v>1001022657075</v>
+        <v>1001023857038</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="23"/>
@@ -2882,22 +2888,24 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D190,4)</f>
-        <v>7070</v>
+        <f>RIGHT(D41:D192,4)</f>
+        <v>7040</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D41" s="28">
-        <v>1001022377070</v>
+        <v>1001025027040</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
+      <c r="F41" s="23">
+        <v>0.27</v>
+      </c>
       <c r="G41" s="23">
-        <f>E41</f>
+        <f>F41*E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -2907,17 +2915,17 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D188,4)</f>
-        <v>6253</v>
+        <f>RIGHT(D42:D191,4)</f>
+        <v>7075</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="28">
-        <v>1001020836253</v>
+        <v>1001022657075</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="23"/>
@@ -2932,22 +2940,22 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D187,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D43:D192,4)</f>
+        <v>7070</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D43" s="28">
-        <v>1001021966602</v>
+        <v>1001022377070</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>E43*0.35</f>
+        <f>E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -2958,21 +2966,21 @@
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
         <f>RIGHT(D44:D190,4)</f>
-        <v>6768</v>
+        <v>6253</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D44" s="28">
-        <v>1001025176768</v>
+        <v>1001020836253</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23">
-        <f>E44*0.41</f>
+        <f>E44</f>
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
@@ -2982,22 +2990,22 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D191,4)</f>
-        <v>6770</v>
+        <f>RIGHT(D45:D189,4)</f>
+        <v>6602</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="28">
-        <v>1001025486770</v>
+        <v>1001021966602</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23">
-        <f>E45*0.41</f>
+        <f>E45*0.35</f>
         <v>0</v>
       </c>
       <c r="H45" s="14"/>
@@ -3005,72 +3013,74 @@
       <c r="J45" s="39"/>
       <c r="K45" s="82"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D194,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D46:D192,4)</f>
+        <v>6768</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D46" s="28">
-        <v>1001024976829</v>
+        <v>1001025176768</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23">
-        <f>E46*1</f>
+        <f>E46*0.41</f>
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="82"/>
+    </row>
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D199,4)</f>
-        <v>7074</v>
+        <f>RIGHT(D47:D193,4)</f>
+        <v>6770</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="28">
-        <v>1001022657074</v>
+        <v>1001025486770</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23">
-        <f>E47*0.6</f>
+        <f>E47*0.41</f>
         <v>0</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="39"/>
+      <c r="K47" s="82"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D200,4)</f>
-        <v>7073</v>
+        <f>RIGHT(D48:D196,4)</f>
+        <v>6829</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="28">
-        <v>1001022657073</v>
+        <v>1001024976829</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*0.35</f>
+        <f>E48*1</f>
         <v>0</v>
       </c>
       <c r="H48" s="14"/>
@@ -3080,21 +3090,21 @@
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
         <f>RIGHT(D49:D201,4)</f>
-        <v>6759</v>
+        <v>7074</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="28">
-        <v>1001020836759</v>
+        <v>1001022657074</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23">
-        <f>E49*0.4</f>
+        <f>E49*0.6</f>
         <v>0</v>
       </c>
       <c r="H49" s="14"/>
@@ -3104,23 +3114,21 @@
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
         <f>RIGHT(D50:D202,4)</f>
-        <v>6724</v>
+        <v>7073</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="28">
-        <v>1001020836724</v>
+        <v>1001022657073</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F50" s="23"/>
       <c r="G50" s="23">
-        <f>F50*E50</f>
+        <f>E50*0.35</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
@@ -3130,23 +3138,21 @@
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
         <f>RIGHT(D51:D203,4)</f>
-        <v>6616</v>
+        <v>6759</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="28">
-        <v>1001024976616</v>
+        <v>1001020836759</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F51" s="23"/>
       <c r="G51" s="23">
-        <f>F51*E51</f>
+        <f>E51*0.4</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
@@ -3155,24 +3161,24 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D202,4)</f>
-        <v>6901</v>
+        <f>RIGHT(D52:D204,4)</f>
+        <v>6724</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="28">
-        <v>1001025526901</v>
+        <v>1001020836724</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="G52" s="23">
-        <f>E52*F52</f>
+        <f>F52*E52</f>
         <v>0</v>
       </c>
       <c r="H52" s="14"/>
@@ -3181,163 +3187,163 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D203,4)</f>
-        <v>6962</v>
+        <f>RIGHT(D53:D205,4)</f>
+        <v>6616</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001025526962</v>
+        <v>1001024976616</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="G53" s="23">
-        <f>E53*F53</f>
+        <f>F53*E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D201,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>67</v>
+        <f>RIGHT(D54:D204,4)</f>
+        <v>6901</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D54" s="28">
-        <v>1001022726303</v>
+        <v>1001025526901</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G54" s="23">
-        <f>E54*1</f>
+        <f>E54*F54</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I54" s="14">
-        <v>45</v>
-      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="39"/>
-      <c r="K54" s="82"/>
-    </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D202,4)</f>
-        <v>7077</v>
-      </c>
-      <c r="B55" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="33" t="s">
+        <f>RIGHT(D55:D205,4)</f>
+        <v>6962</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001025507077</v>
+        <v>1001025526962</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="23"/>
+      <c r="F55" s="23">
+        <v>0.16</v>
+      </c>
       <c r="G55" s="23">
-        <f>E55*0.4</f>
+        <f>E55*F55</f>
         <v>0</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="39"/>
-      <c r="K55" s="82"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D202,4)</f>
-        <v>7080</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D56:D203,4)</f>
+        <v>6303</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D56" s="28">
-        <v>1001022467080</v>
+        <v>1001022726303</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
-        <v>0.45</v>
+        <v>1.0666666666666671</v>
       </c>
       <c r="G56" s="23">
-        <f>E56*0.41</f>
+        <f>E56*1</f>
         <v>0</v>
       </c>
       <c r="H56" s="14">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I56" s="14">
         <v>45</v>
       </c>
       <c r="J56" s="39"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="82"/>
+    </row>
+    <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D203,4)</f>
-        <v>6762</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>70</v>
+        <f>RIGHT(D57:D204,4)</f>
+        <v>7077</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="28">
-        <v>1001020846762</v>
+        <v>1001025507077</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F57" s="23"/>
       <c r="G57" s="23">
-        <f>E57*F57</f>
+        <f>E57*0.4</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="39"/>
+      <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D203,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D58:D204,4)</f>
+        <v>7080</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D58" s="28">
-        <v>1001022465820</v>
+        <v>1001022467080</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="23">
+        <v>0.45</v>
+      </c>
       <c r="G58" s="23">
-        <f>E58*1</f>
+        <f>E58*0.41</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="14">
+        <v>4.5</v>
+      </c>
       <c r="I58" s="14">
         <v>45</v>
       </c>
@@ -3345,22 +3351,24 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D204,4)</f>
-        <v>7082</v>
+        <f>RIGHT(D59:D205,4)</f>
+        <v>6762</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D59" s="28">
-        <v>1001022467082</v>
+        <v>1001020846762</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G59" s="23">
-        <f>E59*1</f>
+        <f>E59*F59</f>
         <v>0</v>
       </c>
       <c r="H59" s="14"/>
@@ -3370,16 +3378,16 @@
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
         <f>RIGHT(D60:D205,4)</f>
-        <v>6764</v>
+        <v>5820</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="28">
-        <v>1001020846764</v>
+        <v>1001022465820</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23"/>
@@ -3388,22 +3396,24 @@
         <v>0</v>
       </c>
       <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="I60" s="14">
+        <v>45</v>
+      </c>
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D207,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D61:D206,4)</f>
+        <v>7082</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="28">
-        <v>1001020836761</v>
+        <v>1001022467082</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
@@ -3417,17 +3427,17 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D208,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D62:D207,4)</f>
+        <v>6764</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="28">
-        <v>1001023696767</v>
+        <v>1001020846764</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23"/>
@@ -3441,22 +3451,22 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D208,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D63:D209,4)</f>
+        <v>6761</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001023696765</v>
+        <v>1001020836761</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23">
-        <f>E63*0.36</f>
+        <f>E63*1</f>
         <v>0</v>
       </c>
       <c r="H63" s="14"/>
@@ -3465,24 +3475,22 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D209,4)</f>
-        <v>6909</v>
+        <f>RIGHT(D64:D210,4)</f>
+        <v>6767</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001025766909</v>
+        <v>1001023696767</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*F64</f>
+        <f>E64*1</f>
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
@@ -3492,23 +3500,21 @@
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
         <f>RIGHT(D65:D210,4)</f>
-        <v>6987</v>
+        <v>6765</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="28">
-        <v>1001025886987</v>
+        <v>1001023696765</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="23">
-        <v>0.6</v>
-      </c>
+      <c r="F65" s="23"/>
       <c r="G65" s="23">
-        <f>E65*F65</f>
+        <f>E65*0.36</f>
         <v>0</v>
       </c>
       <c r="H65" s="14"/>
@@ -3517,227 +3523,227 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D208,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D66:D211,4)</f>
+        <v>6909</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="28">
-        <v>1001022377066</v>
+        <v>1001025766909</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G66" s="23">
-        <f>E66*0.41</f>
+        <f>E66*F66</f>
         <v>0</v>
       </c>
-      <c r="H66" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I66" s="14">
-        <v>45</v>
-      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
       <c r="J66" s="39"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D209,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D67:D212,4)</f>
+        <v>6987</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="28">
-        <v>1001022556837</v>
+        <v>1001025886987</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G67" s="23">
-        <f>E67*0.4</f>
+        <f>E67*F67</f>
         <v>0</v>
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D211,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D68:D210,4)</f>
+        <v>7066</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D68" s="28">
-        <v>1001022246661</v>
+        <v>1001022377066</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G68" s="23">
-        <f>E68*1</f>
+        <f>E68*0.41</f>
         <v>0</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="H68" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I68" s="14">
+        <v>45</v>
+      </c>
       <c r="J68" s="39"/>
-      <c r="K68" s="82"/>
-    </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D212,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="35" t="s">
+        <f>RIGHT(D69:D211,4)</f>
+        <v>6837</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001022246713</v>
+        <v>1001022556837</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="23"/>
+      <c r="F69" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G69" s="23">
-        <f>E69*0.41</f>
+        <f>E69*0.4</f>
         <v>0</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="39"/>
-      <c r="K69" s="82"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D208,4)</f>
+        <f>RIGHT(D70:D213,4)</f>
+        <v>6661</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="28">
+        <v>1001022246661</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23">
+        <f>E70*1</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="82"/>
+    </row>
+    <row r="71" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="94" t="str">
+        <f>RIGHT(D71:D214,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23">
+        <f>E71*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="82"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="94" t="str">
+        <f>RIGHT(D72:D210,4)</f>
         <v/>
       </c>
-      <c r="B70" s="74" t="s">
+      <c r="B72" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="75"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D209,4)</f>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="75"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="94" t="str">
+        <f>RIGHT(D73:D211,4)</f>
         <v>5698</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B73" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C73" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D73" s="28">
         <v>1001034065698</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23">
-        <v>1.013333333333333</v>
-      </c>
-      <c r="G71" s="23">
-        <f>E71*1</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I71" s="14">
-        <v>30</v>
-      </c>
-      <c r="J71" s="39"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D212,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23">
-        <f>E72*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="39"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D213,4)</f>
-        <v>7059</v>
-      </c>
-      <c r="B73" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="28">
-        <v>1001035277059</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23">
-        <v>0.3</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="G73" s="23">
-        <f>F73*E73</f>
+        <f>E73*1</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="H73" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="I73" s="14">
+        <v>30</v>
+      </c>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D213,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D74:D214,4)</f>
+        <v>6528</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="28">
-        <v>1001033856609</v>
+        <v>1001031076528</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F74" s="23"/>
       <c r="G74" s="23">
-        <f>F74*E74</f>
+        <f>E74*0.4</f>
         <v>0</v>
       </c>
       <c r="H74" s="14"/>
@@ -3746,149 +3752,149 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D214,4)</f>
-        <v>7001</v>
+        <f>RIGHT(D75:D215,4)</f>
+        <v>7059</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D75" s="28">
-        <v>1001035937001</v>
+        <v>1001035277059</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G75" s="23">
-        <f>E75</f>
+        <f>F75*E75</f>
         <v>0</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D214,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D76:D215,4)</f>
+        <v>6609</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>23</v>
+        <v>87</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D76" s="28">
-        <v>1001031076527</v>
+        <v>1001033856609</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23">
-        <v>1.0166666666666671</v>
+        <v>0.4</v>
       </c>
       <c r="G76" s="23">
-        <f>E76*1</f>
+        <f>F76*E76</f>
         <v>0</v>
       </c>
-      <c r="H76" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I76" s="14">
-        <v>30</v>
-      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D215,4)</f>
-        <v/>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="75"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D77:D216,4)</f>
+        <v>7001</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1001035937001</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23">
+        <v>1</v>
+      </c>
+      <c r="G77" s="23">
+        <f>E77</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="39"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="str">
         <f>RIGHT(D78:D216,4)</f>
-        <v>7173</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>26</v>
+        <v>6527</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D78" s="28">
-        <v>1001302277173</v>
+        <v>1001031076527</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
-        <v>0.28000000000000003</v>
+        <v>1.0166666666666671</v>
       </c>
       <c r="G78" s="23">
-        <f>E78*F78</f>
+        <f>E78*1</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="14">
+        <v>3.05</v>
+      </c>
       <c r="I78" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="str">
         <f>RIGHT(D79:D217,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="28">
-        <v>1001300516785</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23">
-        <f>E79*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="39"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="75"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
         <f>RIGHT(D80:D218,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B80" s="97" t="s">
-        <v>93</v>
+        <v>7173</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001303637149</v>
+        <v>1001302277173</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23">
-        <v>0.84</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G80" s="23">
-        <f>F80*E80</f>
+        <f>E80*F80</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
@@ -3899,22 +3905,22 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D218,4)</f>
-        <v>6786</v>
+        <f>RIGHT(D81:D219,4)</f>
+        <v>6785</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001300516786</v>
+        <v>1001300516785</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23">
-        <f>E81</f>
+        <f>E81*0.33</f>
         <v>0</v>
       </c>
       <c r="H81" s="14"/>
@@ -3923,41 +3929,45 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D219,4)</f>
-        <v>4903</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>95</v>
+        <f>RIGHT(D82:D220,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>93</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001040434903</v>
+        <v>1001303637149</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23"/>
+      <c r="F82" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G82" s="23">
-        <f>E82</f>
+        <f>F82*E82</f>
         <v>0</v>
       </c>
       <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="I82" s="14">
+        <v>50</v>
+      </c>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D219,4)</f>
-        <v>6794</v>
+        <f>RIGHT(D83:D220,4)</f>
+        <v>6786</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="28">
-        <v>1001303636794</v>
+        <v>1001300516786</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23"/>
@@ -3966,147 +3976,147 @@
         <v>0</v>
       </c>
       <c r="H83" s="14"/>
-      <c r="I83" s="14">
+      <c r="I83" s="14"/>
+      <c r="J83" s="39"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="94" t="str">
+        <f>RIGHT(D84:D221,4)</f>
+        <v>4903</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="28">
+        <v>1001040434903</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23">
+        <f>E84</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="39"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="94" t="str">
+        <f>RIGHT(D85:D221,4)</f>
+        <v>6794</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="28">
+        <v>1001303636794</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23">
+        <f>E85</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14">
         <v>45</v>
       </c>
-      <c r="J83" s="39"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D217,4)</f>
+      <c r="J85" s="39"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="94" t="str">
+        <f>RIGHT(D86:D219,4)</f>
         <v>6773</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B86" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="28">
-        <v>1001303106773</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G84" s="23">
-        <f>E84*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I84" s="14">
-        <v>45</v>
-      </c>
-      <c r="J84" s="39"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D220,4)</f>
-        <v/>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="75"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D221,4)</f>
-        <v>7154</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>99</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="28">
-        <v>1001300387154</v>
+        <v>1001303106773</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G86" s="23">
-        <f>E86*0.35</f>
+        <f>E86*0.28</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="I86" s="14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D223,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="28">
-        <v>1001303636793</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23">
-        <f>E87*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="39"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D87:D222,4)</f>
+        <v/>
+      </c>
+      <c r="B87" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="75"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D224,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D88:D223,4)</f>
+        <v>7154</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001302596795</v>
+        <v>1001300387154</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G88" s="23">
-        <f>E88*0.33</f>
+        <f>E88*0.35</f>
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="14">
+        <v>50</v>
+      </c>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D224,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D89:D225,4)</f>
+        <v>6793</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001300366807</v>
+        <v>1001303636793</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23"/>
@@ -4120,47 +4130,41 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D224,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D90:D226,4)</f>
+        <v>6795</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001304506684</v>
+        <v>1001302596795</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F90" s="23"/>
       <c r="G90" s="23">
-        <f>E90*0.28</f>
+        <f>E90*0.33</f>
         <v>0</v>
       </c>
-      <c r="H90" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I90" s="14">
-        <v>45</v>
-      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
         <f>RIGHT(D91:D226,4)</f>
-        <v>6787</v>
+        <v>6807</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
@@ -4174,46 +4178,52 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D227,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D92:D226,4)</f>
+        <v>6684</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D92" s="28">
-        <v>1001300456788</v>
+        <v>1001304506684</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="23"/>
+      <c r="F92" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G92" s="23">
-        <f>E92*1</f>
+        <f>E92*0.28</f>
         <v>0</v>
       </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="H92" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I92" s="14">
+        <v>45</v>
+      </c>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
         <f>RIGHT(D93:D228,4)</f>
-        <v>6790</v>
+        <v>6787</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D93" s="28">
-        <v>1001300366790</v>
+        <v>1001300456787</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23">
-        <f>E93*1</f>
+        <f>E93*0.33</f>
         <v>0</v>
       </c>
       <c r="H93" s="14"/>
@@ -4222,50 +4232,46 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D227,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B94" s="64" t="s">
-        <v>107</v>
+        <f>RIGHT(D94:D229,4)</f>
+        <v>6788</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D94" s="28">
-        <v>1001303987169</v>
+        <v>1001300456788</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F94" s="23"/>
       <c r="G94" s="23">
-        <f>E94*F94</f>
+        <f>E94*1</f>
         <v>0</v>
       </c>
       <c r="H94" s="14"/>
-      <c r="I94" s="14">
-        <v>50</v>
-      </c>
+      <c r="I94" s="14"/>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D228,4)</f>
-        <v>6791</v>
-      </c>
-      <c r="B95" s="64" t="s">
-        <v>108</v>
+        <f>RIGHT(D95:D230,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D95" s="28">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23">
-        <f>E95*0.33</f>
+        <f>E95*1</f>
         <v>0</v>
       </c>
       <c r="H95" s="14"/>
@@ -4275,21 +4281,23 @@
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
         <f>RIGHT(D96:D229,4)</f>
-        <v>7166</v>
+        <v>7169</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>23</v>
+        <v>107</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001303987166</v>
+        <v>1001303987169</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
+      <c r="F96" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G96" s="23">
-        <f>E96*1</f>
+        <f>E96*F96</f>
         <v>0</v>
       </c>
       <c r="H96" s="14"/>
@@ -4301,23 +4309,21 @@
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
         <f>RIGHT(D97:D230,4)</f>
-        <v>6459</v>
+        <v>6791</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001214196459</v>
+        <v>1001304096791</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="23">
-        <f>E97*F97</f>
+        <f>E97*0.33</f>
         <v>0</v>
       </c>
       <c r="H97" s="14"/>
@@ -4327,45 +4333,49 @@
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
         <f>RIGHT(D98:D231,4)</f>
-        <v>6586</v>
+        <v>7166</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D98" s="28">
-        <v>1001215576586</v>
+        <v>1001303987166</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*0.09</f>
+        <f>E98*1</f>
         <v>0</v>
       </c>
       <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="14">
+        <v>50</v>
+      </c>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D229,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D99:D232,4)</f>
+        <v>6459</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001225416228</v>
+        <v>1001214196459</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G99" s="23">
-        <f>E99*0.09</f>
+        <f>E99*F99</f>
         <v>0</v>
       </c>
       <c r="H99" s="14"/>
@@ -4374,24 +4384,22 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D230,4)</f>
-        <v>7087</v>
+        <f>RIGHT(D100:D233,4)</f>
+        <v>6586</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001084227087</v>
+        <v>1001215576586</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>F100*E100</f>
+        <f>E100*0.09</f>
         <v>0</v>
       </c>
       <c r="H100" s="14"/>
@@ -4400,293 +4408,293 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D229,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D101:D231,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001051875544</v>
+        <v>1001225416228</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23">
-        <v>0.85</v>
-      </c>
+      <c r="F101" s="23"/>
       <c r="G101" s="23">
-        <f>E101*1</f>
+        <f>E101*0.09</f>
         <v>0</v>
       </c>
-      <c r="H101" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I101" s="14">
-        <v>45</v>
-      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
-        <f t="shared" ref="A102:A107" si="1">RIGHT(D102:D231,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" s="36" t="s">
+        <f>RIGHT(D102:D232,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001301876697</v>
+        <v>1001084227087</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G102" s="23">
-        <f>E102*0.35</f>
+        <f>F102*E102</f>
         <v>0</v>
       </c>
-      <c r="H102" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I102" s="14">
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="39"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="94" t="str">
+        <f>RIGHT(D103:D231,4)</f>
+        <v>5544</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="28">
+        <v>1001051875544</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="G103" s="23">
+        <f>E103*1</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I103" s="14">
         <v>45</v>
       </c>
-      <c r="J102" s="39"/>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B103" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="75"/>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J103" s="39"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5706</v>
+        <f t="shared" ref="A104:A109" si="0">RIGHT(D104:D233,4)</f>
+        <v>6697</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001061975706</v>
+        <v>1001301876697</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*0.25</f>
+        <f>E104*0.35</f>
         <v>0</v>
       </c>
       <c r="H104" s="14">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I104" s="14">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6454</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D105" s="28">
-        <v>1001201976454</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G105" s="23">
-        <f>E105*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I105" s="14">
-        <v>60</v>
-      </c>
-      <c r="J105" s="39"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B105" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="75"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>5706</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001205386222</v>
+        <v>1001061975706</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G106" s="23">
-        <f>E106*0.09</f>
+        <f>E106*0.25</f>
         <v>0</v>
       </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="H106" s="14">
+        <v>2</v>
+      </c>
+      <c r="I106" s="14">
+        <v>120</v>
+      </c>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001060755931</v>
+        <v>1001201976454</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="G107" s="23">
-        <f>E107*0.22</f>
+        <f>E107*0.1</f>
         <v>0</v>
       </c>
       <c r="H107" s="14">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="I107" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D238,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>23</v>
+        <v>119</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001063145708</v>
+        <v>1001205386222</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.51249999999999996</v>
-      </c>
+      <c r="F108" s="23"/>
       <c r="G108" s="23">
-        <f>E108*1</f>
+        <f>E108*0.09</f>
         <v>0</v>
       </c>
-      <c r="H108" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I108" s="14">
-        <v>120</v>
-      </c>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D239,4)</f>
-        <v>1146</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>23</v>
+        <v>120</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001061971146</v>
+        <v>1001060755931</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23"/>
+      <c r="F109" s="23">
+        <v>0.22</v>
+      </c>
       <c r="G109" s="23">
-        <f>E109</f>
+        <f>E109*0.22</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="H109" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="I109" s="14">
+        <v>120</v>
+      </c>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D239,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D110:D240,4)</f>
+        <v>5708</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D110" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="23"/>
+      <c r="F110" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G110" s="23">
-        <f>E110*0.1</f>
+        <f>E110*1</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
+      <c r="H110" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I110" s="14">
+        <v>120</v>
+      </c>
       <c r="J110" s="39"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D240,4)</f>
-        <v>6448</v>
+        <f>RIGHT(D111:D241,4)</f>
+        <v>1146</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D111" s="28">
-        <v>1001234146448</v>
+        <v>1001061971146</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F111" s="23"/>
       <c r="G111" s="23">
-        <f>F111*E111</f>
+        <f>E111</f>
         <v>0</v>
       </c>
       <c r="H111" s="14"/>
@@ -4696,23 +4704,21 @@
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
         <f>RIGHT(D112:D241,4)</f>
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001205376221</v>
+        <v>1001203146834</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="23">
-        <v>0.09</v>
-      </c>
+      <c r="F112" s="23"/>
       <c r="G112" s="23">
-        <f>F112*E112</f>
+        <f>E112*0.1</f>
         <v>0</v>
       </c>
       <c r="H112" s="14"/>
@@ -4721,21 +4727,21 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D241,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D113:D242,4)</f>
+        <v>6448</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001190765679</v>
+        <v>1001234146448</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G113" s="23">
         <f>F113*E113</f>
@@ -4748,50 +4754,46 @@
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
         <f>RIGHT(D114:D243,4)</f>
-        <v>4993</v>
+        <v>6221</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001060764993</v>
+        <v>1001205376221</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G114" s="23">
-        <f>E114*0.25</f>
+        <f>F114*E114</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14">
-        <v>2</v>
-      </c>
-      <c r="I114" s="14">
-        <v>120</v>
-      </c>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
       <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D244,4)</f>
-        <v>7105</v>
+        <f>RIGHT(D115:D243,4)</f>
+        <v>5679</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001203207105</v>
+        <v>1001190765679</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="G115" s="23">
         <f>F115*E115</f>
@@ -4804,42 +4806,46 @@
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
         <f>RIGHT(D116:D245,4)</f>
-        <v>7106</v>
+        <v>4993</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001205447106</v>
+        <v>1001060764993</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G116" s="23">
-        <f>F116*E116</f>
+        <f>E116*0.25</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
+      <c r="H116" s="14">
+        <v>2</v>
+      </c>
+      <c r="I116" s="14">
+        <v>120</v>
+      </c>
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
         <f>RIGHT(D117:D246,4)</f>
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001205467107</v>
+        <v>1001203207105</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
@@ -4855,21 +4861,21 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D244,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D118:D247,4)</f>
+        <v>7106</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001062353684</v>
+        <v>1001205447106</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G118" s="23">
         <f>F118*E118</f>
@@ -4881,235 +4887,235 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D244,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D119:D248,4)</f>
+        <v>7107</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001193115682</v>
+        <v>1001205467107</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G119" s="23">
-        <f>E119*0.12</f>
+        <f>F119*E119</f>
         <v>0</v>
       </c>
-      <c r="H119" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I119" s="14">
-        <v>60</v>
-      </c>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D247,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D120:D246,4)</f>
+        <v>3684</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>23</v>
+        <v>131</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001062504117</v>
+        <v>1001062353684</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G120" s="23">
-        <f>E120*1</f>
+        <f>F120*E120</f>
         <v>0</v>
       </c>
-      <c r="H120" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I120" s="14">
-        <v>120</v>
-      </c>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
       <c r="J120" s="39"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D248,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D121:D246,4)</f>
+        <v>5682</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>23</v>
+        <v>132</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001062353680</v>
+        <v>1001193115682</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="23"/>
+      <c r="F121" s="23">
+        <v>0.12</v>
+      </c>
       <c r="G121" s="23">
-        <f>E121</f>
+        <f>E121*0.12</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="H121" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I121" s="14">
+        <v>60</v>
+      </c>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D248,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D122:D249,4)</f>
+        <v>4117</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>26</v>
+        <v>133</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D122" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G122" s="23">
-        <f>E122*0.25</f>
+        <f>E122*1</f>
         <v>0</v>
       </c>
       <c r="H122" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I122" s="14">
         <v>120</v>
       </c>
       <c r="J122" s="39"/>
     </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D249,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D123:D250,4)</f>
+        <v>3680</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>26</v>
+        <v>134</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D123" s="28">
-        <v>1001202506453</v>
+        <v>1001062353680</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F123" s="23"/>
       <c r="G123" s="23">
-        <f>E123*0.1</f>
+        <f>E123</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I123" s="14">
-        <v>60</v>
-      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="39"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
         <f>RIGHT(D124:D250,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G124" s="23">
+        <f>E124*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <v>2</v>
+      </c>
+      <c r="I124" s="14">
+        <v>120</v>
+      </c>
+      <c r="J124" s="39"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="94" t="str">
+        <f>RIGHT(D125:D251,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G125" s="23">
+        <f>E125*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I125" s="14">
+        <v>60</v>
+      </c>
+      <c r="J125" s="39"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="94" t="str">
+        <f>RIGHT(D126:D252,4)</f>
         <v/>
       </c>
-      <c r="B124" s="74" t="s">
+      <c r="B126" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="75"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="94" t="str">
-        <f>RIGHT(D125:D254,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23">
-        <f>E125*1</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="39"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="94" t="str">
-        <f>RIGHT(D126:D255,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G126" s="23">
-        <f>F126*E126</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="39"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="74"/>
+      <c r="I126" s="74"/>
+      <c r="J126" s="75"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A127" s="94" t="str">
         <f>RIGHT(D127:D256,4)</f>
-        <v>7035</v>
+        <v>6470</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D127" s="80">
-        <v>1001095227035</v>
+        <v>1001092436470</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F127" s="23"/>
       <c r="G127" s="23">
-        <f>F127*E127</f>
+        <f>E127*1</f>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5119,16 +5125,16 @@
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
         <f>RIGHT(D128:D257,4)</f>
-        <v>6411</v>
+        <v>6495</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="80">
-        <v>1001093316411</v>
+        <v>1001092436495</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
@@ -5144,175 +5150,175 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
-        <f>RIGHT(D129:D255,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D129:D258,4)</f>
+        <v>7035</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D129" s="80">
-        <v>1001095716866</v>
+        <v>1001095227035</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="23"/>
+      <c r="F129" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G129" s="23">
-        <f>E129*1</f>
+        <f>F129*E129</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
-        <f>RIGHT(D130:D252,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C130" s="37" t="s">
+        <f>RIGHT(D130:D259,4)</f>
+        <v>6411</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="51">
-        <v>1001094053215</v>
+      <c r="D130" s="80">
+        <v>1001093316411</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G130" s="23">
-        <f>E130*0.4</f>
+        <f>F130*E130</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I130" s="14">
-        <v>60</v>
-      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
-        <f>RIGHT(D131:D255,4)</f>
-        <v/>
-      </c>
-      <c r="B131" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="75"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D131:D257,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23">
+        <f>E131*1</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="94" t="str">
-        <f>RIGHT(D132:D258,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B132" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C132" s="35" t="s">
+        <f>RIGHT(D132:D254,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="28">
-        <v>1001084217090</v>
+      <c r="D132" s="51">
+        <v>1001094053215</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G132" s="23">
-        <f>E132*F132</f>
+        <f>E132*0.4</f>
         <v>0</v>
       </c>
-      <c r="H132" s="14"/>
+      <c r="H132" s="14">
+        <v>3.2</v>
+      </c>
       <c r="I132" s="14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J132" s="39"/>
     </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="94" t="str">
-        <f>RIGHT(D133:D259,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B133" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="28">
-        <v>1001083424691</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G133" s="23">
-        <f t="shared" ref="G133:G139" si="2">F133*E133</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="93"/>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D133:D257,4)</f>
+        <v/>
+      </c>
+      <c r="B133" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="75"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A134" s="94" t="str">
         <f>RIGHT(D134:D260,4)</f>
-        <v>6200</v>
+        <v>7090</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001085636200</v>
+        <v>1001084217090</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
         <v>0.3</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="2"/>
+        <f>E134*F134</f>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="93"/>
+      <c r="I134" s="14">
+        <v>50</v>
+      </c>
+      <c r="J134" s="39"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="94" t="str">
         <f>RIGHT(D135:D261,4)</f>
-        <v>6201</v>
+        <v>4691</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001225636201</v>
+        <v>1001083424691</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G135:G141" si="1">F135*E135</f>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5321,24 +5327,24 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
-        <f>RIGHT(D136:D261,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D136:D262,4)</f>
+        <v>6200</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C136" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001080216842</v>
+        <v>1001085636200</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
         <v>0.3</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5347,24 +5353,24 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="94" t="str">
-        <f>RIGHT(D137:D261,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D137:D263,4)</f>
+        <v>6201</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1001084226492</v>
+        <v>1001225636201</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5373,24 +5379,24 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="94" t="str">
-        <f>RIGHT(D138:D259,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D138:D263,4)</f>
+        <v>6842</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C138" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="28">
-        <v>1001220286279</v>
+        <v>1001080216842</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G138" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5399,24 +5405,24 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="94" t="str">
-        <f>RIGHT(D139:D260,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D139:D263,4)</f>
+        <v>6492</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C139" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="28">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G139" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5426,23 +5432,23 @@
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94" t="str">
         <f>RIGHT(D140:D261,4)</f>
-        <v>7052</v>
+        <v>6279</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D140" s="28">
-        <v>1001204447052</v>
+        <v>1001220286279</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G140" s="23">
-        <f>E140</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
@@ -5451,24 +5457,24 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="94" t="str">
-        <f>RIGHT(D141:D261,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D141:D262,4)</f>
+        <v>4786</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D141" s="28">
-        <v>1001223297053</v>
+        <v>1001053944786</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G141" s="23">
-        <f>E141</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
@@ -5477,263 +5483,268 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="94" t="str">
-        <f>RIGHT(D142:D261,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D142:D263,4)</f>
+        <v>7052</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D142" s="28">
-        <v>1001223297092</v>
+        <v>1001204447052</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G142" s="23">
-        <f>F142*E142</f>
+        <f>E142</f>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
-      <c r="J142" s="39"/>
+      <c r="J142" s="93"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="94" t="str">
-        <f>RIGHT(D143:D262,4)</f>
-        <v>7103</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D143:D263,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D143" s="28">
-        <v>1001223297103</v>
+        <v>1001223297053</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G143" s="23">
-        <f>F143*E143</f>
+        <f>E143</f>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="93"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="94" t="str">
-        <f>RIGHT(D144:D259,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B144" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="35" t="s">
+        <f>RIGHT(D144:D263,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="28">
-        <v>1001223296919</v>
+        <v>1001223297092</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="23"/>
+      <c r="F144" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G144" s="23">
-        <f>E144*0.18</f>
+        <f>F144*E144</f>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="93"/>
-    </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J144" s="39"/>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="94" t="str">
-        <f>RIGHT(D145:D260,4)</f>
+        <f>RIGHT(D145:D264,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G145" s="23">
+        <f>F145*E145</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="93"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="94" t="str">
+        <f>RIGHT(D146:D261,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23">
+        <f>E146*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="93"/>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="94" t="str">
+        <f>RIGHT(D147:D262,4)</f>
         <v/>
       </c>
-      <c r="B145" s="74" t="s">
+      <c r="B147" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="74"/>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="75"/>
-    </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="94" t="str">
-        <f>RIGHT(D146:D263,4)</f>
-        <v/>
-      </c>
-      <c r="B146" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="75"/>
-    </row>
-    <row r="147" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="94" t="str">
-        <f>RIGHT(D147:D264,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B147" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G147" s="23">
-        <f>E147*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H147" s="14">
-        <v>8</v>
-      </c>
-      <c r="I147" s="72">
-        <v>120</v>
-      </c>
-      <c r="J147" s="39"/>
-    </row>
-    <row r="148" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="74"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="75"/>
+    </row>
+    <row r="148" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="94" t="str">
         <f>RIGHT(D148:D265,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B148" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23">
-        <f>E148*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H148" s="14"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="39"/>
-    </row>
-    <row r="149" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B148" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="73"/>
+      <c r="G148" s="74"/>
+      <c r="H148" s="74"/>
+      <c r="I148" s="74"/>
+      <c r="J148" s="75"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A149" s="94" t="str">
         <f>RIGHT(D149:D266,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G149" s="23">
+        <f>E149*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="14">
+        <v>8</v>
+      </c>
+      <c r="I149" s="72">
+        <v>120</v>
+      </c>
+      <c r="J149" s="39"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="94" t="str">
+        <f>RIGHT(D150:D267,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B150" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E150" s="24"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23">
+        <f>E150*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="72"/>
+      <c r="J150" s="39"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="94" t="str">
+        <f>RIGHT(D151:D268,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B151" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23">
-        <f>E149*0.45</f>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23">
+        <f>E151*0.45</f>
         <v>0</v>
       </c>
-      <c r="H149" s="14"/>
-      <c r="I149" s="72"/>
-      <c r="J149" s="39"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="94" t="str">
-        <f t="shared" ref="A150:A161" si="3">RIGHT(D150:D265,4)</f>
+      <c r="H151" s="14"/>
+      <c r="I151" s="72"/>
+      <c r="J151" s="39"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="94" t="str">
+        <f t="shared" ref="A152:A163" si="2">RIGHT(D152:D267,4)</f>
         <v>6313</v>
       </c>
-      <c r="B150" s="47" t="s">
+      <c r="B152" s="47" t="s">
         <v>163</v>
-      </c>
-      <c r="C150" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G150" s="23">
-        <f>E150*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H150" s="14">
-        <v>9</v>
-      </c>
-      <c r="I150" s="72">
-        <v>120</v>
-      </c>
-      <c r="J150" s="39"/>
-    </row>
-    <row r="151" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B151" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="74"/>
-      <c r="H151" s="74"/>
-      <c r="I151" s="74"/>
-      <c r="J151" s="75"/>
-    </row>
-    <row r="152" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>4945</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>165</v>
       </c>
       <c r="C152" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G152" s="23">
-        <f>E152*0.5</f>
+        <f>E152*0.9</f>
         <v>0</v>
       </c>
       <c r="H152" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I152" s="72">
         <v>120</v>
@@ -5742,11 +5753,11 @@
     </row>
     <row r="153" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B153" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C153" s="74"/>
       <c r="D153" s="74"/>
@@ -5757,204 +5768,191 @@
       <c r="I153" s="74"/>
       <c r="J153" s="75"/>
     </row>
-    <row r="154" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>4945</v>
+      </c>
+      <c r="B154" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E154" s="24"/>
+      <c r="F154" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G154" s="23">
+        <f>E154*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="14">
+        <v>8</v>
+      </c>
+      <c r="I154" s="72">
+        <v>120</v>
+      </c>
+      <c r="J154" s="39"/>
+    </row>
+    <row r="155" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B155" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="74"/>
+      <c r="I155" s="74"/>
+      <c r="J155" s="75"/>
+    </row>
+    <row r="156" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>4956</v>
       </c>
-      <c r="B154" s="89" t="s">
+      <c r="B156" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="C154" s="90" t="s">
+      <c r="C156" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D154" s="83">
+      <c r="D156" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E154" s="84"/>
-      <c r="F154" s="85">
+      <c r="E156" s="84"/>
+      <c r="F156" s="85">
         <v>0.42</v>
       </c>
-      <c r="G154" s="85">
-        <f>E154*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I154" s="91">
-        <v>120</v>
-      </c>
-      <c r="J154" s="86"/>
-      <c r="K154" s="87"/>
-    </row>
-    <row r="155" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="B155" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D155" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E155" s="24"/>
-      <c r="F155" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G155" s="23">
-        <f>E155*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I155" s="72">
-        <v>120</v>
-      </c>
-      <c r="J155" s="39"/>
-    </row>
-    <row r="156" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>1764</v>
-      </c>
-      <c r="B156" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D156" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E156" s="24"/>
-      <c r="F156" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G156" s="23">
+      <c r="G156" s="85">
         <f>E156*0.42</f>
         <v>0</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H156" s="86">
         <v>4.2</v>
       </c>
-      <c r="I156" s="72">
+      <c r="I156" s="91">
         <v>120</v>
       </c>
-      <c r="J156" s="39"/>
-    </row>
-    <row r="157" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J156" s="86"/>
+      <c r="K156" s="87"/>
+    </row>
+    <row r="157" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B157" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="75"/>
-    </row>
-    <row r="158" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1762</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E157" s="24"/>
+      <c r="F157" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G157" s="23">
+        <f>E157*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I157" s="72">
+        <v>120</v>
+      </c>
+      <c r="J157" s="39"/>
+    </row>
+    <row r="158" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B158" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
-      <c r="J158" s="75"/>
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+      <c r="B158" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E158" s="24"/>
+      <c r="F158" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G158" s="23">
+        <f>E158*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I158" s="72">
+        <v>120</v>
+      </c>
+      <c r="J158" s="39"/>
     </row>
     <row r="159" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B159" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="75"/>
+    </row>
+    <row r="160" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B160" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="75"/>
+    </row>
+    <row r="161" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>6004</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="B161" s="47" t="s">
         <v>172</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E159" s="24"/>
-      <c r="F159" s="23">
-        <v>1</v>
-      </c>
-      <c r="G159" s="23">
-        <f>E159*1</f>
-        <v>0</v>
-      </c>
-      <c r="H159" s="14">
-        <v>8</v>
-      </c>
-      <c r="I159" s="72">
-        <v>120</v>
-      </c>
-      <c r="J159" s="39"/>
-    </row>
-    <row r="160" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>5417</v>
-      </c>
-      <c r="B160" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D160" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="23">
-        <v>2</v>
-      </c>
-      <c r="G160" s="23">
-        <f>E160*1</f>
-        <v>0</v>
-      </c>
-      <c r="H160" s="14">
-        <v>6</v>
-      </c>
-      <c r="I160" s="72">
-        <v>90</v>
-      </c>
-      <c r="J160" s="39"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>6019</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>176</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D161" s="69" t="s">
-        <v>177</v>
+      <c r="D161" s="68" t="s">
+        <v>173</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
@@ -5965,60 +5963,100 @@
         <v>0</v>
       </c>
       <c r="H161" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I161" s="72">
         <v>120</v>
       </c>
       <c r="J161" s="39"/>
     </row>
-    <row r="162" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="77"/>
-      <c r="B162" s="77" t="s">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>5417</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E162" s="24"/>
+      <c r="F162" s="23">
+        <v>2</v>
+      </c>
+      <c r="G162" s="23">
+        <f>E162*1</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="14">
+        <v>6</v>
+      </c>
+      <c r="I162" s="72">
+        <v>90</v>
+      </c>
+      <c r="J162" s="39"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="23">
+        <v>1</v>
+      </c>
+      <c r="G163" s="23">
+        <f>E163*1</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="14">
+        <v>12</v>
+      </c>
+      <c r="I163" s="72">
+        <v>120</v>
+      </c>
+      <c r="J163" s="39"/>
+    </row>
+    <row r="164" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="77"/>
+      <c r="B164" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="48"/>
-      <c r="E162" s="17">
-        <f>SUM(E5:E161)</f>
+      <c r="C164" s="16"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="17">
+        <f>SUM(E5:E163)</f>
         <v>0</v>
       </c>
-      <c r="F162" s="17">
-        <f>SUM(F10:F161)</f>
-        <v>42.653333333333336</v>
-      </c>
-      <c r="G162" s="17">
-        <f>SUM(G11:G161)</f>
+      <c r="F164" s="17">
+        <f>SUM(F10:F163)</f>
+        <v>43.053333333333335</v>
+      </c>
+      <c r="G164" s="17">
+        <f>SUM(G11:G163)</f>
         <v>0</v>
       </c>
-      <c r="H162" s="17">
-        <f>SUM(H10:H158)</f>
+      <c r="H164" s="17">
+        <f>SUM(H10:H160)</f>
         <v>128.91</v>
       </c>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="53"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="52"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="21"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="53"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="52"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="21"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B165" s="53"/>
       <c r="C165" s="18"/>
       <c r="D165" s="52"/>
@@ -21238,17 +21276,37 @@
       <c r="I1686" s="20"/>
       <c r="J1686" s="21"/>
     </row>
+    <row r="1687" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1687" s="53"/>
+      <c r="C1687" s="18"/>
+      <c r="D1687" s="52"/>
+      <c r="F1687" s="19"/>
+      <c r="G1687" s="19"/>
+      <c r="H1687" s="20"/>
+      <c r="I1687" s="20"/>
+      <c r="J1687" s="21"/>
+    </row>
+    <row r="1688" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1688" s="53"/>
+      <c r="C1688" s="18"/>
+      <c r="D1688" s="52"/>
+      <c r="F1688" s="19"/>
+      <c r="G1688" s="19"/>
+      <c r="H1688" s="20"/>
+      <c r="I1688" s="20"/>
+      <c r="J1688" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J162" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B155" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B157" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D159:D161" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D161:D163" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
+++ b/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B694C5-55D6-4774-9CEF-FC7A8295F9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B95D89-0D51-4346-9E52-5C7AE6ECF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$164</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -322,9 +322,6 @@
     <t>КРАКОВСКАЯ п/к н/о мгс_30с</t>
   </si>
   <si>
-    <t>БАЛЫКОВАЯ в/к в/у</t>
-  </si>
-  <si>
     <t>САЛЯМИ Папа может п/к в/у 0.28кг 8шт.</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
   </si>
   <si>
     <t>ШЕЙКА КОПЧЕНАЯ к/в мл/к в/у 300*6</t>
-  </si>
-  <si>
-    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг</t>
   </si>
   <si>
     <t>ГРУДИНКА ПРЕМИУМ к/в с/н в/у 1/150 8шт.</t>
@@ -752,6 +746,12 @@
   </si>
   <si>
     <t>С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0,3кг_50с</t>
   </si>
 </sst>
 </file>
@@ -1941,8 +1941,8 @@
   <dimension ref="A1:M1688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
+      <pane ySplit="9" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D166,4)</f>
+        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D166,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D167,4)</f>
+        <f t="shared" si="0"/>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2271,7 +2271,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D168,4)</f>
+        <f t="shared" si="0"/>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2297,7 +2297,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D169,4)</f>
+        <f t="shared" si="0"/>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2321,7 +2321,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D170,4)</f>
+        <f t="shared" si="0"/>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2351,7 +2351,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D171,4)</f>
+        <f t="shared" si="0"/>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D172,4)</f>
+        <f t="shared" si="0"/>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2411,7 +2411,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D173,4)</f>
+        <f t="shared" si="0"/>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D181,4)</f>
+        <f t="shared" ref="A27:A32" si="1">RIGHT(D27:D181,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2549,7 +2549,7 @@
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D182,4)</f>
+        <f t="shared" si="1"/>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2579,7 +2579,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D183,4)</f>
+        <f t="shared" si="1"/>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2605,7 +2605,7 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D184,4)</f>
+        <f t="shared" si="1"/>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2629,11 +2629,11 @@
     </row>
     <row r="31" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D185,4)</f>
+        <f t="shared" si="1"/>
         <v>6877</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>23</v>
@@ -2654,11 +2654,11 @@
     </row>
     <row r="32" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D186,4)</f>
+        <f t="shared" si="1"/>
         <v>6888</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>26</v>
@@ -4006,16 +4006,16 @@
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
         <f>RIGHT(D85:D221,4)</f>
-        <v>6794</v>
+        <v>7131</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="28">
-        <v>1001303636794</v>
+        <v>1001303637131</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
@@ -4035,7 +4035,7 @@
         <v>6773</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>26</v>
@@ -4065,7 +4065,7 @@
         <v/>
       </c>
       <c r="B87" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="74"/>
       <c r="D87" s="74"/>
@@ -4082,7 +4082,7 @@
         <v>7154</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
@@ -4110,7 +4110,7 @@
         <v>6793</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
@@ -4134,7 +4134,7 @@
         <v>6795</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
@@ -4158,7 +4158,7 @@
         <v>6807</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
@@ -4182,7 +4182,7 @@
         <v>6684</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
@@ -4212,7 +4212,7 @@
         <v>6787</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
@@ -4236,7 +4236,7 @@
         <v>6788</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>23</v>
@@ -4260,7 +4260,7 @@
         <v>6790</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>23</v>
@@ -4284,7 +4284,7 @@
         <v>7169</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>26</v>
@@ -4312,7 +4312,7 @@
         <v>6791</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
@@ -4336,7 +4336,7 @@
         <v>7166</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C98" s="30" t="s">
         <v>23</v>
@@ -4362,7 +4362,7 @@
         <v>6459</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
@@ -4388,7 +4388,7 @@
         <v>6586</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
@@ -4412,7 +4412,7 @@
         <v>6228</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
@@ -4436,7 +4436,7 @@
         <v>7087</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
@@ -4462,7 +4462,7 @@
         <v>5544</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>23</v>
@@ -4488,11 +4488,11 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="94" t="str">
-        <f t="shared" ref="A104:A109" si="0">RIGHT(D104:D233,4)</f>
+        <f t="shared" ref="A104:A109" si="2">RIGHT(D104:D233,4)</f>
         <v>6697</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="36" t="s">
         <v>26</v>
@@ -4518,11 +4518,11 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B105" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
@@ -4535,11 +4535,11 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5706</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
@@ -4565,11 +4565,11 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6454</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
@@ -4595,11 +4595,11 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6222</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
@@ -4619,11 +4619,11 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5931</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
@@ -4653,7 +4653,7 @@
         <v>5708</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>23</v>
@@ -4683,7 +4683,7 @@
         <v>1146</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>23</v>
@@ -4707,7 +4707,7 @@
         <v>6834</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>26</v>
@@ -4731,7 +4731,7 @@
         <v>6448</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
@@ -4757,7 +4757,7 @@
         <v>6221</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
@@ -4783,7 +4783,7 @@
         <v>5679</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
@@ -4809,7 +4809,7 @@
         <v>4993</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
@@ -4839,7 +4839,7 @@
         <v>7105</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
@@ -4865,7 +4865,7 @@
         <v>7106</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
@@ -4891,7 +4891,7 @@
         <v>7107</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
@@ -4917,7 +4917,7 @@
         <v>3684</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
@@ -4943,7 +4943,7 @@
         <v>5682</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
@@ -4973,7 +4973,7 @@
         <v>4117</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>23</v>
@@ -5003,7 +5003,7 @@
         <v>3680</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>23</v>
@@ -5027,7 +5027,7 @@
         <v>5483</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
@@ -5057,7 +5057,7 @@
         <v>6453</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
@@ -5087,7 +5087,7 @@
         <v/>
       </c>
       <c r="B126" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="74"/>
       <c r="D126" s="74"/>
@@ -5104,7 +5104,7 @@
         <v>6470</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>23</v>
@@ -5128,7 +5128,7 @@
         <v>6495</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>26</v>
@@ -5154,7 +5154,7 @@
         <v>7035</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>26</v>
@@ -5180,7 +5180,7 @@
         <v>6411</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>26</v>
@@ -5206,7 +5206,7 @@
         <v>6866</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>23</v>
@@ -5230,7 +5230,7 @@
         <v>3215</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132" s="37" t="s">
         <v>26</v>
@@ -5260,7 +5260,7 @@
         <v/>
       </c>
       <c r="B133" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C133" s="74"/>
       <c r="D133" s="74"/>
@@ -5277,7 +5277,7 @@
         <v>7090</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>26</v>
@@ -5305,7 +5305,7 @@
         <v>4691</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>26</v>
@@ -5318,7 +5318,7 @@
         <v>0.3</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" ref="G135:G141" si="1">F135*E135</f>
+        <f t="shared" ref="G135:G141" si="3">F135*E135</f>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5328,23 +5328,23 @@
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
         <f>RIGHT(D136:D262,4)</f>
-        <v>6200</v>
+        <v>7187</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="C136" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001085636200</v>
+        <v>1001085637187</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
         <v>0.3</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5357,7 +5357,7 @@
         <v>6201</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>26</v>
@@ -5370,7 +5370,7 @@
         <v>0.15</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5383,7 +5383,7 @@
         <v>6842</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C138" s="35" t="s">
         <v>26</v>
@@ -5396,7 +5396,7 @@
         <v>0.3</v>
       </c>
       <c r="G138" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5409,7 +5409,7 @@
         <v>6492</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C139" s="35" t="s">
         <v>26</v>
@@ -5422,7 +5422,7 @@
         <v>0.3</v>
       </c>
       <c r="G139" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5435,7 +5435,7 @@
         <v>6279</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C140" s="35" t="s">
         <v>26</v>
@@ -5448,7 +5448,7 @@
         <v>0.15</v>
       </c>
       <c r="G140" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
@@ -5461,7 +5461,7 @@
         <v>4786</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>26</v>
@@ -5474,7 +5474,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G141" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
@@ -5487,7 +5487,7 @@
         <v>7052</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>23</v>
@@ -5513,7 +5513,7 @@
         <v>7053</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>23</v>
@@ -5539,7 +5539,7 @@
         <v>7092</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>26</v>
@@ -5565,7 +5565,7 @@
         <v>7103</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>26</v>
@@ -5591,7 +5591,7 @@
         <v>6919</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>26</v>
@@ -5615,7 +5615,7 @@
         <v/>
       </c>
       <c r="B147" s="74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C147" s="74"/>
       <c r="D147" s="74"/>
@@ -5632,7 +5632,7 @@
         <v/>
       </c>
       <c r="B148" s="74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C148" s="74"/>
       <c r="D148" s="74"/>
@@ -5649,7 +5649,7 @@
         <v>6314</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>26</v>
@@ -5679,7 +5679,7 @@
         <v>6155</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>26</v>
@@ -5703,7 +5703,7 @@
         <v>6157</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>26</v>
@@ -5723,11 +5723,11 @@
     </row>
     <row r="152" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="94" t="str">
-        <f t="shared" ref="A152:A163" si="2">RIGHT(D152:D267,4)</f>
+        <f t="shared" ref="A152:A163" si="4">RIGHT(D152:D267,4)</f>
         <v>6313</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C152" s="36" t="s">
         <v>26</v>
@@ -5753,11 +5753,11 @@
     </row>
     <row r="153" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B153" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C153" s="74"/>
       <c r="D153" s="74"/>
@@ -5770,11 +5770,11 @@
     </row>
     <row r="154" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4945</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C154" s="36" t="s">
         <v>26</v>
@@ -5800,11 +5800,11 @@
     </row>
     <row r="155" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B155" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C155" s="74"/>
       <c r="D155" s="74"/>
@@ -5817,11 +5817,11 @@
     </row>
     <row r="156" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4956</v>
       </c>
       <c r="B156" s="89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C156" s="90" t="s">
         <v>26</v>
@@ -5848,11 +5848,11 @@
     </row>
     <row r="157" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1762</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>26</v>
@@ -5878,11 +5878,11 @@
     </row>
     <row r="158" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1764</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>26</v>
@@ -5908,11 +5908,11 @@
     </row>
     <row r="159" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B159" s="74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C159" s="74"/>
       <c r="D159" s="74"/>
@@ -5925,11 +5925,11 @@
     </row>
     <row r="160" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B160" s="74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C160" s="74"/>
       <c r="D160" s="74"/>
@@ -5942,17 +5942,17 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6004</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
@@ -5972,17 +5972,17 @@
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A162" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5417</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C162" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D162" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
@@ -6002,17 +6002,17 @@
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6019</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
@@ -6033,7 +6033,7 @@
     <row r="164" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="77"/>
       <c r="B164" s="77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="48"/>
@@ -21332,24 +21332,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -21360,13 +21360,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -21377,13 +21377,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -21393,17 +21393,17 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -21420,61 +21420,61 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -21485,7 +21485,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -21495,53 +21495,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -21567,40 +21567,40 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" s="61"/>
     </row>
@@ -21612,70 +21612,70 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="81"/>
     </row>
@@ -21686,133 +21686,133 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C86" s="61"/>
     </row>

--- a/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
+++ b/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B95D89-0D51-4346-9E52-5C7AE6ECF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23C19A-75DF-42EE-A54F-5E57F55CB42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$165</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="242">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -307,9 +307,6 @@
     <t>Полукопченые колбасы</t>
   </si>
   <si>
-    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
-  </si>
-  <si>
     <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
   </si>
   <si>
     <t>КРАКОВСКАЯ п/к н/о мгс_30с</t>
-  </si>
-  <si>
-    <t>САЛЯМИ Папа может п/к в/у 0.28кг 8шт.</t>
   </si>
   <si>
     <t>Варенокопченые колбасы</t>
@@ -449,9 +443,6 @@
   </si>
   <si>
     <t>ВЕТЧ.МРАМОРНАЯ в/у срез 0.3кг 6шт_45с</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.КЛАССИЧЕСКАЯ ПМ п/о 0.35кг 8шт.</t>
   </si>
   <si>
     <t>ВЕТЧ.РУБЛЕНАЯ ПМ в/у срез 0.3кг 6шт.</t>
@@ -752,6 +743,21 @@
   </si>
   <si>
     <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0,3кг_50с</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.КЛАССИЧЕСКАЯ ПМ п/о 0.35кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0,28кг_209к</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Останкино вар п/о 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1938,11 +1944,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1688"/>
+  <dimension ref="A1:M1689"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <pane ySplit="9" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2093,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D163,4)</f>
+        <f>RIGHT(D11:D164,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2118,7 +2124,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D164,4)</f>
+        <f>RIGHT(D12:D165,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2143,7 +2149,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D164,4)</f>
+        <f>RIGHT(D13:D165,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2167,7 +2173,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D165,4)</f>
+        <f>RIGHT(D14:D166,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2189,99 +2195,100 @@
       <c r="I14" s="14"/>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D166,4)</f>
-        <v>6247</v>
+        <f>RIGHT(D15:D167,4)</f>
+        <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="28">
-        <v>1001011086247</v>
+        <v>1001010027126</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G15" s="23">
-        <f>E15*0.4</f>
+        <f>F15*E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="39"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D166,4)</f>
-        <v>6325</v>
+        <f>RIGHT(D16:D167,4)</f>
+        <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="28">
-        <v>1001010106325</v>
+        <v>1001011086247</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="23">
         <f>E16*0.4</f>
         <v>0</v>
       </c>
-      <c r="H16" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I16" s="14">
-        <v>60</v>
-      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6324</v>
+        <f t="shared" ref="A17:A24" si="0">RIGHT(D17:D167,4)</f>
+        <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="28">
-        <v>1001010016324</v>
+        <v>1001010106325</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="23">
         <v>0.4</v>
       </c>
       <c r="G17" s="23">
-        <f>F17*E17</f>
+        <f>E17*0.4</f>
         <v>0</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I17" s="14">
+        <v>60</v>
+      </c>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6839</v>
+        <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="28">
-        <v>1001010016839</v>
+        <v>1001010016324</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="23">
@@ -2298,21 +2305,23 @@
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6426</v>
+        <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="28">
-        <v>1001013956426</v>
+        <v>1001010016839</v>
       </c>
       <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G19" s="23">
-        <f>E19*0.3</f>
+        <f>F19*E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="14"/>
@@ -2322,57 +2331,51 @@
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>4063</v>
+        <v>6426</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="28">
-        <v>1001012484063</v>
+        <v>1001013956426</v>
       </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="23">
-        <f>E20*1</f>
+        <f>E20*0.3</f>
         <v>0</v>
       </c>
-      <c r="H20" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I20" s="14">
-        <v>60</v>
-      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6333</v>
+        <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="28">
-        <v>1001012486333</v>
+        <v>1001012484063</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G21" s="23">
-        <f>E21*0.4</f>
+        <f>E21*1</f>
         <v>0</v>
       </c>
       <c r="H21" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I21" s="14">
         <v>60</v>
@@ -2382,27 +2385,27 @@
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>4574</v>
+        <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="D22" s="28">
-        <v>1001012634574</v>
+        <v>1001012486333</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="23">
-        <f>E22*1</f>
+        <f>E22*0.4</f>
         <v>0</v>
       </c>
       <c r="H22" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I22" s="14">
         <v>60</v>
@@ -2412,27 +2415,27 @@
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6861</v>
+        <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="28">
-        <v>1001015646861</v>
+        <v>1001012634574</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="23">
-        <v>2</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G23" s="23">
         <f>E23*1</f>
         <v>0</v>
       </c>
       <c r="H23" s="14">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I23" s="14">
         <v>60</v>
@@ -2441,46 +2444,52 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D177,4)</f>
-        <v>6862</v>
+        <f t="shared" si="0"/>
+        <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="28">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2</v>
+      </c>
       <c r="G24" s="23">
         <f>E24*1</f>
         <v>0</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="14">
+        <v>4</v>
+      </c>
+      <c r="I24" s="14">
+        <v>60</v>
+      </c>
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D177,4)</f>
-        <v>6341</v>
+        <f>RIGHT(D25:D178,4)</f>
+        <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="28">
-        <v>1001012816341</v>
+        <v>1001015706862</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23">
-        <f>E25*0.5</f>
+        <f>E25*1</f>
         <v>0</v>
       </c>
       <c r="H25" s="14"/>
@@ -2490,87 +2499,81 @@
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
         <f>RIGHT(D26:D178,4)</f>
-        <v>5247</v>
+        <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="28">
-        <v>1001010855247</v>
+        <v>1001012816341</v>
       </c>
       <c r="E26" s="24"/>
-      <c r="F26" s="23">
-        <v>1.48</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="23">
-        <f>E26*1</f>
+        <f>E26*0.5</f>
         <v>0</v>
       </c>
-      <c r="H26" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="I26" s="14">
-        <v>45</v>
-      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f t="shared" ref="A27:A32" si="1">RIGHT(D27:D181,4)</f>
-        <v>4813</v>
+        <f>RIGHT(D27:D179,4)</f>
+        <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="28">
-        <v>1001012564813</v>
+        <v>1001010855247</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="23">
-        <v>1.366666666666666</v>
+        <v>1.48</v>
       </c>
       <c r="G27" s="23">
         <f>E27*1</f>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="I27" s="14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6392</v>
+        <f t="shared" ref="A28:A33" si="1">RIGHT(D28:D182,4)</f>
+        <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="28">
-        <v>1001012566392</v>
+        <v>1001012564813</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G28" s="23">
-        <f>E28*0.4</f>
+        <f>E28*1</f>
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I28" s="14">
         <v>60</v>
@@ -2580,66 +2583,72 @@
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6801</v>
+        <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="28">
-        <v>1001012596801</v>
+        <v>1001012566392</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="23">
         <v>0.4</v>
       </c>
       <c r="G29" s="23">
-        <f>F29*E29</f>
+        <f>E29*0.4</f>
         <v>0</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="H29" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I29" s="14">
+        <v>60</v>
+      </c>
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="28">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
+      <c r="F30" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G30" s="23">
-        <f>E30</f>
+        <f>F30*E30</f>
         <v>0</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6877</v>
+        <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="28">
-        <v>1001015676877</v>
+        <v>1001012596802</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="23"/>
@@ -2650,28 +2659,25 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="39"/>
-      <c r="K31" s="82"/>
     </row>
     <row r="32" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6888</v>
+        <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="28">
-        <v>1001016366888</v>
+        <v>1001015676877</v>
       </c>
       <c r="E32" s="24"/>
-      <c r="F32" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F32" s="23"/>
       <c r="G32" s="23">
-        <f>F32*E32</f>
+        <f>E32</f>
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
@@ -2679,108 +2685,107 @@
       <c r="J32" s="39"/>
       <c r="K32" s="82"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D184,4)</f>
-        <v>5851</v>
+        <f t="shared" si="1"/>
+        <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" s="28">
-        <v>1001012505851</v>
+        <v>1001016366888</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G33" s="23">
-        <f>E33*1</f>
+        <f>F33*E33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I33" s="14">
-        <v>60</v>
-      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="39"/>
+      <c r="K33" s="82"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
         <f>RIGHT(D34:D185,4)</f>
-        <v>6159</v>
+        <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="28">
-        <v>1001014486159</v>
+        <v>1001012505851</v>
       </c>
       <c r="E34" s="24"/>
-      <c r="F34" s="23"/>
+      <c r="F34" s="23">
+        <v>1.366666666666666</v>
+      </c>
       <c r="G34" s="23">
         <f>E34*1</f>
         <v>0</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="H34" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I34" s="14">
+        <v>60</v>
+      </c>
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D185,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D35:D186,4)</f>
+        <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="28">
-        <v>1001014486158</v>
+        <v>1001014486159</v>
       </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F35" s="23"/>
       <c r="G35" s="23">
-        <f>E35*0.4</f>
+        <f>E35*1</f>
         <v>0</v>
       </c>
       <c r="H35" s="14"/>
-      <c r="I35" s="14">
-        <v>60</v>
-      </c>
+      <c r="I35" s="14"/>
       <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D187,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>47</v>
+        <f>RIGHT(D36:D186,4)</f>
+        <v>6158</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="28">
-        <v>1001012816340</v>
+        <v>1001014486158</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G36" s="23">
-        <f>E36*0.5</f>
+        <f>E36*0.4</f>
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
@@ -2789,96 +2794,99 @@
       </c>
       <c r="J36" s="39"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D185,4)</f>
-        <v>6353</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>48</v>
+        <f>RIGHT(D37:D188,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B37" s="96" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="28">
-        <v>1001012506353</v>
+        <v>1001012816340</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="23">
-        <f>E37*0.4</f>
+        <f>E37*0.5</f>
         <v>0</v>
       </c>
-      <c r="H37" s="14">
-        <v>3.2</v>
-      </c>
+      <c r="H37" s="14"/>
       <c r="I37" s="14">
         <v>60</v>
       </c>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94" t="str">
         <f>RIGHT(D38:D186,4)</f>
+        <v>6353</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="28">
+        <v>1001012506353</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="23">
+        <f>E38*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I38" s="14">
+        <v>60</v>
+      </c>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="94" t="str">
+        <f>RIGHT(D39:D187,4)</f>
         <v/>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B39" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
-    </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D189,4)</f>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94" t="str">
+        <f>RIGHT(D40:D190,4)</f>
         <v>6870</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B40" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="28">
-        <v>1001023856870</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23">
-        <f>E39*1</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="82"/>
-    </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D191,4)</f>
-        <v>7038</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>51</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="28">
-        <v>1001023857038</v>
+        <v>1001023856870</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23">
-        <f>E40</f>
+        <f>E40*1</f>
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
@@ -2889,23 +2897,21 @@
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
         <f>RIGHT(D41:D192,4)</f>
-        <v>7040</v>
+        <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" s="28">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="23">
-        <v>0.27</v>
-      </c>
+      <c r="F41" s="23"/>
       <c r="G41" s="23">
-        <f>F41*E41</f>
+        <f>E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -2915,22 +2921,24 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D191,4)</f>
-        <v>7075</v>
+        <f>RIGHT(D42:D193,4)</f>
+        <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D42" s="28">
-        <v>1001022657075</v>
+        <v>1001025027040</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="F42" s="23"/>
+      <c r="F42" s="23">
+        <v>0.27</v>
+      </c>
       <c r="G42" s="23">
-        <f>E42</f>
+        <f>F42*E42</f>
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -2941,16 +2949,16 @@
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
         <f>RIGHT(D43:D192,4)</f>
-        <v>7070</v>
+        <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="28">
-        <v>1001022377070</v>
+        <v>1001022657075</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
@@ -2965,17 +2973,17 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D190,4)</f>
-        <v>6253</v>
+        <f>RIGHT(D44:D193,4)</f>
+        <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="28">
-        <v>1001020836253</v>
+        <v>1001022377070</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
@@ -2990,22 +2998,22 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D189,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D45:D191,4)</f>
+        <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D45" s="28">
-        <v>1001021966602</v>
+        <v>1001020836253</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23">
-        <f>E45*0.35</f>
+        <f>E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="14"/>
@@ -3015,22 +3023,22 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D192,4)</f>
-        <v>6768</v>
+        <f>RIGHT(D46:D190,4)</f>
+        <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="28">
-        <v>1001025176768</v>
+        <v>1001021966602</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23">
-        <f>E46*0.41</f>
+        <f>E46*0.35</f>
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
@@ -3041,16 +3049,16 @@
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
         <f>RIGHT(D47:D193,4)</f>
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="28">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
@@ -3063,48 +3071,49 @@
       <c r="J47" s="39"/>
       <c r="K47" s="82"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D196,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D48:D194,4)</f>
+        <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D48" s="28">
-        <v>1001024976829</v>
+        <v>1001025486770</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*1</f>
+        <f>E48*0.41</f>
         <v>0</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="39"/>
+      <c r="K48" s="82"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D201,4)</f>
-        <v>7074</v>
+        <f>RIGHT(D49:D197,4)</f>
+        <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D49" s="28">
-        <v>1001022657074</v>
+        <v>1001024976829</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23">
-        <f>E49*0.6</f>
+        <f>E49*1</f>
         <v>0</v>
       </c>
       <c r="H49" s="14"/>
@@ -3114,21 +3123,21 @@
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
         <f>RIGHT(D50:D202,4)</f>
-        <v>7073</v>
+        <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="28">
-        <v>1001022657073</v>
+        <v>1001022657074</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23">
-        <f>E50*0.35</f>
+        <f>E50*0.6</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
@@ -3138,21 +3147,21 @@
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
         <f>RIGHT(D51:D203,4)</f>
-        <v>6759</v>
+        <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="28">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23">
-        <f>E51*0.4</f>
+        <f>E51*0.35</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
@@ -3162,23 +3171,21 @@
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
         <f>RIGHT(D52:D204,4)</f>
-        <v>6724</v>
+        <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="28">
-        <v>1001020836724</v>
+        <v>1001020836759</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F52" s="23"/>
       <c r="G52" s="23">
-        <f>F52*E52</f>
+        <f>E52*0.4</f>
         <v>0</v>
       </c>
       <c r="H52" s="14"/>
@@ -3188,20 +3195,20 @@
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
         <f>RIGHT(D53:D205,4)</f>
-        <v>6616</v>
+        <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001024976616</v>
+        <v>1001020836724</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="G53" s="23">
         <f>F53*E53</f>
@@ -3213,24 +3220,24 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D204,4)</f>
-        <v>6901</v>
+        <f>RIGHT(D54:D206,4)</f>
+        <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="28">
-        <v>1001025526901</v>
+        <v>1001024976616</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="G54" s="23">
-        <f>E54*F54</f>
+        <f>F54*E54</f>
         <v>0</v>
       </c>
       <c r="H54" s="14"/>
@@ -3240,16 +3247,16 @@
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
         <f>RIGHT(D55:D205,4)</f>
-        <v>6962</v>
+        <v>6901</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001025526962</v>
+        <v>1001025526901</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
@@ -3263,157 +3270,157 @@
       <c r="I55" s="14"/>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D203,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>67</v>
+        <f>RIGHT(D56:D206,4)</f>
+        <v>6962</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D56" s="28">
-        <v>1001022726303</v>
+        <v>1001025526962</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G56" s="23">
-        <f>E56*1</f>
+        <f>E56*F56</f>
         <v>0</v>
       </c>
-      <c r="H56" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I56" s="14">
-        <v>45</v>
-      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="82"/>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
         <f>RIGHT(D57:D204,4)</f>
-        <v>7077</v>
+        <v>6303</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D57" s="28">
-        <v>1001025507077</v>
+        <v>1001022726303</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
+      <c r="F57" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G57" s="23">
-        <f>E57*0.4</f>
+        <f>E57*1</f>
         <v>0</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="H57" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I57" s="14">
+        <v>45</v>
+      </c>
       <c r="J57" s="39"/>
       <c r="K57" s="82"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D204,4)</f>
-        <v>7080</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>69</v>
+        <f>RIGHT(D58:D205,4)</f>
+        <v>7077</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="28">
-        <v>1001022467080</v>
+        <v>1001025507077</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F58" s="23"/>
       <c r="G58" s="23">
-        <f>E58*0.41</f>
+        <f>E58*0.4</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I58" s="14">
-        <v>45</v>
-      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="39"/>
+      <c r="K58" s="82"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
         <f>RIGHT(D59:D205,4)</f>
-        <v>6762</v>
+        <v>7080</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="28">
-        <v>1001020846762</v>
+        <v>1001022467080</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G59" s="23">
-        <f>E59*F59</f>
+        <f>E59*0.41</f>
         <v>0</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
+      <c r="H59" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I59" s="14">
+        <v>45</v>
+      </c>
       <c r="J59" s="39"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D205,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D60:D206,4)</f>
+        <v>6762</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D60" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G60" s="23">
-        <f>E60*1</f>
+        <f>E60*F60</f>
         <v>0</v>
       </c>
       <c r="H60" s="14"/>
-      <c r="I60" s="14">
-        <v>45</v>
-      </c>
+      <c r="I60" s="14"/>
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
         <f>RIGHT(D61:D206,4)</f>
-        <v>7082</v>
+        <v>5820</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="28">
-        <v>1001022467082</v>
+        <v>1001022465820</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
@@ -3422,22 +3429,24 @@
         <v>0</v>
       </c>
       <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="I61" s="14">
+        <v>45</v>
+      </c>
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
         <f>RIGHT(D62:D207,4)</f>
-        <v>6764</v>
+        <v>7082</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="28">
-        <v>1001020846764</v>
+        <v>1001022467082</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23"/>
@@ -3451,17 +3460,17 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D209,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D63:D208,4)</f>
+        <v>6764</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
@@ -3476,16 +3485,16 @@
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
         <f>RIGHT(D64:D210,4)</f>
-        <v>6767</v>
+        <v>6761</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
@@ -3499,22 +3508,22 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D210,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D65:D211,4)</f>
+        <v>6767</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D65" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23">
-        <f>E65*0.36</f>
+        <f>E65*1</f>
         <v>0</v>
       </c>
       <c r="H65" s="14"/>
@@ -3524,23 +3533,21 @@
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
         <f>RIGHT(D66:D211,4)</f>
-        <v>6909</v>
+        <v>6765</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F66" s="23"/>
       <c r="G66" s="23">
-        <f>E66*F66</f>
+        <f>E66*0.36</f>
         <v>0</v>
       </c>
       <c r="H66" s="14"/>
@@ -3550,20 +3557,20 @@
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
         <f>RIGHT(D67:D212,4)</f>
-        <v>6987</v>
+        <v>6909</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="28">
-        <v>1001025886987</v>
+        <v>1001025766909</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="G67" s="23">
         <f>E67*F67</f>
@@ -3575,103 +3582,104 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D210,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D68:D213,4)</f>
+        <v>6987</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="28">
-        <v>1001022377066</v>
+        <v>1001025886987</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="G68" s="23">
-        <f>E68*0.41</f>
+        <f>E68*F68</f>
         <v>0</v>
       </c>
-      <c r="H68" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I68" s="14">
-        <v>45</v>
-      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="39"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
         <f>RIGHT(D69:D211,4)</f>
-        <v>6837</v>
+        <v>7066</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001022556837</v>
+        <v>1001022377066</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="G69" s="23">
+        <f>E69*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I69" s="14">
+        <v>45</v>
+      </c>
+      <c r="J69" s="39"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="94" t="str">
+        <f>RIGHT(D70:D212,4)</f>
+        <v>6837</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="28">
+        <v>1001022556837</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23">
         <v>0.4</v>
       </c>
-      <c r="G69" s="23">
-        <f>E69*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D213,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="28">
-        <v>1001022246661</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
       <c r="G70" s="23">
-        <f>E70*1</f>
+        <f>E70*0.4</f>
         <v>0</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="39"/>
-      <c r="K70" s="82"/>
-    </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
         <f>RIGHT(D71:D214,4)</f>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D71" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23">
-        <f>E71*0.41</f>
+        <f>E71*1</f>
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
@@ -3679,97 +3687,96 @@
       <c r="J71" s="39"/>
       <c r="K71" s="82"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D210,4)</f>
-        <v/>
-      </c>
-      <c r="B72" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="75"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D72:D215,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23">
+        <f>E72*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="82"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="94" t="str">
         <f>RIGHT(D73:D211,4)</f>
+        <v/>
+      </c>
+      <c r="B73" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="75"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="94" t="str">
+        <f>RIGHT(D74:D212,4)</f>
         <v>5698</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B74" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="28">
+      <c r="D74" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23">
+      <c r="E74" s="24"/>
+      <c r="F74" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G73" s="23">
-        <f>E73*1</f>
+      <c r="G74" s="23">
+        <f>E74*1</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>3.04</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>30</v>
       </c>
-      <c r="J73" s="39"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D214,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23">
-        <f>E74*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
         <f>RIGHT(D75:D215,4)</f>
-        <v>7059</v>
+        <v>6528</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D75" s="28">
-        <v>1001035277059</v>
+        <v>1001031076528</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F75" s="23"/>
       <c r="G75" s="23">
-        <f>F75*E75</f>
+        <f>E75*0.4</f>
         <v>0</v>
       </c>
       <c r="H75" s="14"/>
@@ -3778,21 +3785,21 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D215,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D76:D216,4)</f>
+        <v>7059</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="28">
-        <v>1001033856609</v>
+        <v>1001035277059</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G76" s="23">
         <f>F76*E76</f>
@@ -3805,193 +3812,195 @@
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
         <f>RIGHT(D77:D216,4)</f>
-        <v>7001</v>
+        <v>6609</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D77" s="28">
-        <v>1001035937001</v>
+        <v>1001033856609</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G77" s="23">
-        <f>E77</f>
+        <f>F77*E77</f>
         <v>0</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D216,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D78:D217,4)</f>
+        <v>7001</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="28">
-        <v>1001031076527</v>
+        <v>1001035937001</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
-        <v>1.0166666666666671</v>
+        <v>1</v>
       </c>
       <c r="G78" s="23">
-        <f>E78*1</f>
+        <f>E78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I78" s="14">
-        <v>30</v>
-      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="str">
         <f>RIGHT(D79:D217,4)</f>
-        <v/>
-      </c>
-      <c r="B79" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="75"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G79" s="23">
+        <f>E79*1</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I79" s="14">
+        <v>30</v>
+      </c>
+      <c r="J79" s="39"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="94" t="str">
         <f>RIGHT(D80:D218,4)</f>
-        <v>7173</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="28">
-        <v>1001302277173</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G80" s="23">
-        <f>E80*F80</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14">
-        <v>50</v>
-      </c>
-      <c r="J80" s="39"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="75"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
         <f>RIGHT(D81:D219,4)</f>
-        <v>6785</v>
+        <v>7232</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001300516785</v>
+        <v>1001302277232</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="23"/>
+      <c r="F81" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G81" s="23">
-        <f>E81*0.33</f>
+        <f>E81*F81</f>
         <v>0</v>
       </c>
       <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
+      <c r="I81" s="14">
+        <v>50</v>
+      </c>
       <c r="J81" s="39"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
         <f>RIGHT(D82:D220,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B82" s="97" t="s">
-        <v>93</v>
+        <v>6785</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F82" s="23"/>
       <c r="G82" s="23">
-        <f>F82*E82</f>
+        <f>E82*0.33</f>
         <v>0</v>
       </c>
       <c r="H82" s="14"/>
-      <c r="I82" s="14">
-        <v>50</v>
-      </c>
+      <c r="I82" s="14"/>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D220,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>94</v>
+        <f>RIGHT(D83:D221,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G83" s="23">
-        <f>E83</f>
+        <f>F83*E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="I83" s="14">
+        <v>50</v>
+      </c>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
         <f>RIGHT(D84:D221,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23"/>
@@ -4005,17 +4014,17 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D221,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D85:D222,4)</f>
+        <v>4903</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
@@ -4024,123 +4033,123 @@
         <v>0</v>
       </c>
       <c r="H85" s="14"/>
-      <c r="I85" s="14">
-        <v>45</v>
-      </c>
+      <c r="I85" s="14"/>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D219,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D86:D222,4)</f>
+        <v>7131</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D86" s="28">
-        <v>1001303106773</v>
+        <v>1001303637131</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="23">
-        <f>E86*0.28</f>
+        <f>E86</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H86" s="14"/>
       <c r="I86" s="14">
         <v>45</v>
       </c>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D222,4)</f>
-        <v/>
-      </c>
-      <c r="B87" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="75"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D87:D220,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G87" s="23">
+        <f>E87*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I87" s="14">
+        <v>45</v>
+      </c>
+      <c r="J87" s="39"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="94" t="str">
         <f>RIGHT(D88:D223,4)</f>
+        <v/>
+      </c>
+      <c r="B88" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="75"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="94" t="str">
+        <f>RIGHT(D89:D224,4)</f>
         <v>7154</v>
       </c>
-      <c r="B88" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G88" s="23">
-        <f>E88*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14">
-        <v>50</v>
-      </c>
-      <c r="J88" s="39"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D225,4)</f>
-        <v>6793</v>
-      </c>
       <c r="B89" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G89" s="23">
-        <f>E89*0.33</f>
+        <f>E89*0.35</f>
         <v>0</v>
       </c>
       <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="I89" s="14">
+        <v>50</v>
+      </c>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
         <f>RIGHT(D90:D226,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23"/>
@@ -4154,17 +4163,17 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D226,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D91:D227,4)</f>
+        <v>6795</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
@@ -4178,76 +4187,76 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D226,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D92:D227,4)</f>
+        <v>6807</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F92" s="23"/>
       <c r="G92" s="23">
-        <f>E92*0.28</f>
+        <f>E92*0.33</f>
         <v>0</v>
       </c>
-      <c r="H92" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I92" s="14">
-        <v>45</v>
-      </c>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D228,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D93:D227,4)</f>
+        <v>7236</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="28">
-        <v>1001300456787</v>
+        <v>1001304507236</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23"/>
+      <c r="F93" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G93" s="23">
-        <f>E93*0.33</f>
+        <f>E93*0.28</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="H93" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I93" s="14">
+        <v>45</v>
+      </c>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
         <f>RIGHT(D94:D229,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23">
-        <f>E94*1</f>
+        <f>E94*0.33</f>
         <v>0</v>
       </c>
       <c r="H94" s="14"/>
@@ -4257,16 +4266,16 @@
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
         <f>RIGHT(D95:D230,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
@@ -4280,126 +4289,126 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D229,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B96" s="64" t="s">
-        <v>106</v>
+        <f>RIGHT(D96:D231,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D96" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F96" s="23"/>
       <c r="G96" s="23">
-        <f>E96*F96</f>
+        <f>E96*1</f>
         <v>0</v>
       </c>
       <c r="H96" s="14"/>
-      <c r="I96" s="14">
-        <v>50</v>
-      </c>
+      <c r="I96" s="14"/>
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
         <f>RIGHT(D97:D230,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G97" s="23">
-        <f>E97*0.33</f>
+        <f>E97*F97</f>
         <v>0</v>
       </c>
       <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="14">
+        <v>50</v>
+      </c>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
         <f>RIGHT(D98:D231,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>23</v>
+        <v>105</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*1</f>
+        <f>E98*0.33</f>
         <v>0</v>
       </c>
       <c r="H98" s="14"/>
-      <c r="I98" s="14">
-        <v>50</v>
-      </c>
+      <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
         <f>RIGHT(D99:D232,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D99" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*F99</f>
+        <f>E99*1</f>
         <v>0</v>
       </c>
       <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="I99" s="14">
+        <v>50</v>
+      </c>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
         <f>RIGHT(D100:D233,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
+      <c r="F100" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G100" s="23">
-        <f>E100*0.09</f>
+        <f>E100*F100</f>
         <v>0</v>
       </c>
       <c r="H100" s="14"/>
@@ -4408,17 +4417,17 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D231,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D101:D234,4)</f>
+        <v>6586</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23"/>
@@ -4433,23 +4442,21 @@
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
         <f>RIGHT(D102:D232,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F102" s="23"/>
       <c r="G102" s="23">
-        <f>F102*E102</f>
+        <f>E102*0.09</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
@@ -4458,219 +4465,215 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D231,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D103:D233,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G103" s="23">
-        <f>E103*1</f>
+        <f>F103*E103</f>
         <v>0</v>
       </c>
-      <c r="H103" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I103" s="14">
-        <v>45</v>
-      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="39"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f t="shared" ref="A104:A109" si="2">RIGHT(D104:D233,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D104:D232,4)</f>
+        <v>5544</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*0.35</f>
+        <f>E104*1</f>
         <v>0</v>
       </c>
       <c r="H104" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I104" s="14">
         <v>45</v>
       </c>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="94" t="str">
+        <f t="shared" ref="A105:A110" si="2">RIGHT(D105:D234,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G105" s="23">
+        <f>E105*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I105" s="14">
+        <v>45</v>
+      </c>
+      <c r="J105" s="39"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B105" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="75"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="94" t="str">
+      <c r="B106" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="75"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="94" t="str">
         <f t="shared" si="2"/>
         <v>5706</v>
       </c>
-      <c r="B106" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G106" s="23">
-        <f>E106*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="14">
-        <v>2</v>
-      </c>
-      <c r="I106" s="14">
-        <v>120</v>
-      </c>
-      <c r="J106" s="39"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>6454</v>
-      </c>
       <c r="B107" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G107" s="23">
-        <f>E107*0.1</f>
+        <f>E107*0.25</f>
         <v>0</v>
       </c>
       <c r="H107" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I107" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>6222</v>
+        <v>6454</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23"/>
+      <c r="F108" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G108" s="23">
-        <f>E108*0.09</f>
+        <f>E108*0.1</f>
         <v>0</v>
       </c>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="H108" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I108" s="14">
+        <v>60</v>
+      </c>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>5931</v>
+        <v>6222</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F109" s="23"/>
       <c r="G109" s="23">
-        <f>E109*0.22</f>
+        <f>E109*0.09</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I109" s="14">
-        <v>120</v>
-      </c>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D240,4)</f>
-        <v>5708</v>
+        <f t="shared" si="2"/>
+        <v>5931</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>23</v>
+        <v>117</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G110" s="23">
-        <f>E110*1</f>
+        <f>E110*0.22</f>
         <v>0</v>
       </c>
       <c r="H110" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I110" s="14">
         <v>120</v>
@@ -4680,45 +4683,51 @@
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
         <f>RIGHT(D111:D241,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="23"/>
+      <c r="F111" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G111" s="23">
-        <f>E111</f>
+        <f>E111*1</f>
         <v>0</v>
       </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="H111" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I111" s="14">
+        <v>120</v>
+      </c>
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D241,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D112:D242,4)</f>
+        <v>1146</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D112" s="28">
-        <v>1001203146834</v>
+        <v>1001061971146</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23">
-        <f>E112*0.1</f>
+        <f>E112</f>
         <v>0</v>
       </c>
       <c r="H112" s="14"/>
@@ -4728,23 +4737,21 @@
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
         <f>RIGHT(D113:D242,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F113" s="23"/>
       <c r="G113" s="23">
-        <f>F113*E113</f>
+        <f>E113*0.1</f>
         <v>0</v>
       </c>
       <c r="H113" s="14"/>
@@ -4754,20 +4761,20 @@
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
         <f>RIGHT(D114:D243,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G114" s="23">
         <f>F114*E114</f>
@@ -4779,21 +4786,21 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D243,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D115:D244,4)</f>
+        <v>6221</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G115" s="23">
         <f>F115*E115</f>
@@ -4805,73 +4812,73 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D245,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D116:D244,4)</f>
+        <v>5679</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G116" s="23">
-        <f>E116*0.25</f>
+        <f>F116*E116</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14">
-        <v>2</v>
-      </c>
-      <c r="I116" s="14">
-        <v>120</v>
-      </c>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
         <f>RIGHT(D117:D246,4)</f>
-        <v>7105</v>
+        <v>4993</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G117" s="23">
-        <f>F117*E117</f>
+        <f>E117*0.25</f>
         <v>0</v>
       </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
+      <c r="H117" s="14">
+        <v>2</v>
+      </c>
+      <c r="I117" s="14">
+        <v>120</v>
+      </c>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
         <f>RIGHT(D118:D247,4)</f>
-        <v>7106</v>
+        <v>7105</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
@@ -4888,16 +4895,16 @@
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
         <f>RIGHT(D119:D248,4)</f>
-        <v>7107</v>
+        <v>7106</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
@@ -4913,21 +4920,21 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D246,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D120:D249,4)</f>
+        <v>7107</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001062353684</v>
+        <v>1001205467107</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G120" s="23">
         <f>F120*E120</f>
@@ -4939,209 +4946,209 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D246,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D121:D247,4)</f>
+        <v>3684</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G121" s="23">
-        <f>E121*0.12</f>
+        <f>F121*E121</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I121" s="14">
-        <v>60</v>
-      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D249,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D122:D247,4)</f>
+        <v>5682</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>23</v>
+        <v>129</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G122" s="23">
-        <f>E122*1</f>
+        <f>E122*0.12</f>
         <v>0</v>
       </c>
       <c r="H122" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I122" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J122" s="39"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
         <f>RIGHT(D123:D250,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="23"/>
+      <c r="F123" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G123" s="23">
-        <f>E123</f>
+        <f>E123*1</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="H123" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I123" s="14">
+        <v>120</v>
+      </c>
       <c r="J123" s="39"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D250,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D124:D251,4)</f>
+        <v>3680</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>26</v>
+        <v>131</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D124" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F124" s="23"/>
       <c r="G124" s="23">
-        <f>E124*0.25</f>
+        <f>E124</f>
         <v>0</v>
       </c>
-      <c r="H124" s="14">
-        <v>2</v>
-      </c>
-      <c r="I124" s="14">
-        <v>120</v>
-      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
       <c r="J124" s="39"/>
     </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
         <f>RIGHT(D125:D251,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G125" s="23">
-        <f>E125*0.1</f>
+        <f>E125*0.25</f>
         <v>0</v>
       </c>
       <c r="H125" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I125" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J125" s="39"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="94" t="str">
         <f>RIGHT(D126:D252,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G126" s="23">
+        <f>E126*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I126" s="14">
+        <v>60</v>
+      </c>
+      <c r="J126" s="39"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="94" t="str">
+        <f>RIGHT(D127:D253,4)</f>
         <v/>
       </c>
-      <c r="B126" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="74"/>
-      <c r="H126" s="74"/>
-      <c r="I126" s="74"/>
-      <c r="J126" s="75"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="94" t="str">
-        <f>RIGHT(D127:D256,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23">
-        <f>E127*1</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="39"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="75"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
         <f>RIGHT(D128:D257,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D128" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F128" s="23"/>
       <c r="G128" s="23">
-        <f>F128*E128</f>
+        <f>E128*1</f>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5151,20 +5158,20 @@
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
         <f>RIGHT(D129:D258,4)</f>
-        <v>7035</v>
+        <v>6495</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="80">
-        <v>1001095227035</v>
+        <v>1001092436495</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G129" s="23">
         <f>F129*E129</f>
@@ -5177,20 +5184,20 @@
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
         <f>RIGHT(D130:D259,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G130" s="23">
         <f>F130*E130</f>
@@ -5202,149 +5209,149 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
-        <f>RIGHT(D131:D257,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D131:D260,4)</f>
+        <v>6411</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D131" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="23"/>
+      <c r="F131" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G131" s="23">
-        <f>E131*1</f>
+        <f>F131*E131</f>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="39"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="94" t="str">
-        <f>RIGHT(D132:D254,4)</f>
+        <f>RIGHT(D132:D258,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23">
+        <f>E132*1</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="39"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="94" t="str">
+        <f>RIGHT(D133:D255,4)</f>
         <v>3215</v>
       </c>
-      <c r="B132" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" s="37" t="s">
+      <c r="B133" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="51">
+      <c r="D133" s="51">
         <v>1001094053215</v>
       </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="23">
+      <c r="E133" s="24"/>
+      <c r="F133" s="23">
         <v>0.4</v>
       </c>
-      <c r="G132" s="23">
-        <f>E132*0.4</f>
+      <c r="G133" s="23">
+        <f>E133*0.4</f>
         <v>0</v>
       </c>
-      <c r="H132" s="14">
+      <c r="H133" s="14">
         <v>3.2</v>
       </c>
-      <c r="I132" s="14">
+      <c r="I133" s="14">
         <v>60</v>
       </c>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="94" t="str">
-        <f>RIGHT(D133:D257,4)</f>
+      <c r="J133" s="39"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="94" t="str">
+        <f>RIGHT(D134:D258,4)</f>
         <v/>
       </c>
-      <c r="B133" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
-      <c r="J133" s="75"/>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="94" t="str">
-        <f>RIGHT(D134:D260,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B134" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G134" s="23">
-        <f>E134*F134</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14">
-        <v>50</v>
-      </c>
-      <c r="J134" s="39"/>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="94" t="str">
         <f>RIGHT(D135:D261,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
         <v>0.3</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" ref="G135:G141" si="3">F135*E135</f>
+        <f>E135*F135</f>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="93"/>
+      <c r="I135" s="14">
+        <v>50</v>
+      </c>
+      <c r="J135" s="39"/>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
         <f>RIGHT(D136:D262,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="C136" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
         <v>0.3</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G136:G142" si="3">F136*E136</f>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5354,20 +5361,20 @@
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="94" t="str">
         <f>RIGHT(D137:D263,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G137" s="23">
         <f t="shared" si="3"/>
@@ -5379,21 +5386,21 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="94" t="str">
-        <f>RIGHT(D138:D263,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D138:D264,4)</f>
+        <v>6201</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C138" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G138" s="23">
         <f t="shared" si="3"/>
@@ -5405,17 +5412,17 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="94" t="str">
-        <f>RIGHT(D139:D263,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D139:D264,4)</f>
+        <v>6842</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C139" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
@@ -5431,21 +5438,21 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94" t="str">
-        <f>RIGHT(D140:D261,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D140:D264,4)</f>
+        <v>6492</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C140" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G140" s="23">
         <f t="shared" si="3"/>
@@ -5458,20 +5465,20 @@
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="94" t="str">
         <f>RIGHT(D141:D262,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G141" s="23">
         <f t="shared" si="3"/>
@@ -5484,23 +5491,23 @@
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="94" t="str">
         <f>RIGHT(D142:D263,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D142" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G142" s="23">
-        <f>E142</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
@@ -5509,17 +5516,17 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="94" t="str">
-        <f>RIGHT(D143:D263,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D143:D264,4)</f>
+        <v>7052</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D143" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
@@ -5535,47 +5542,47 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="94" t="str">
-        <f>RIGHT(D144:D263,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D144:D264,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D144" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G144" s="23">
-        <f>F144*E144</f>
+        <f>E144</f>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="39"/>
+      <c r="J144" s="93"/>
     </row>
     <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="94" t="str">
         <f>RIGHT(D145:D264,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G145" s="23">
         <f>F145*E145</f>
@@ -5583,56 +5590,65 @@
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
-      <c r="J145" s="93"/>
-    </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J145" s="39"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="94" t="str">
-        <f>RIGHT(D146:D261,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B146" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C146" s="35" t="s">
+        <f>RIGHT(D146:D265,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E146" s="24"/>
-      <c r="F146" s="23"/>
+      <c r="F146" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G146" s="23">
-        <f>E146*0.18</f>
+        <f>F146*E146</f>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="93"/>
     </row>
-    <row r="147" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="94" t="str">
         <f>RIGHT(D147:D262,4)</f>
-        <v/>
-      </c>
-      <c r="B147" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B147" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E147" s="24"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23">
+        <f>E147*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="93"/>
     </row>
     <row r="148" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="94" t="str">
-        <f>RIGHT(D148:D265,4)</f>
+        <f>RIGHT(D148:D263,4)</f>
         <v/>
       </c>
       <c r="B148" s="74" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C148" s="74"/>
       <c r="D148" s="74"/>
@@ -5643,73 +5659,66 @@
       <c r="I148" s="74"/>
       <c r="J148" s="75"/>
     </row>
-    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="94" t="str">
         <f>RIGHT(D149:D266,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G149" s="23">
-        <f>E149*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H149" s="14">
-        <v>8</v>
-      </c>
-      <c r="I149" s="72">
-        <v>120</v>
-      </c>
-      <c r="J149" s="39"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B149" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="74"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="75"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A150" s="94" t="str">
         <f>RIGHT(D150:D267,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E150" s="24"/>
-      <c r="F150" s="23"/>
+      <c r="F150" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G150" s="23">
-        <f>E150*0.45</f>
+        <f>E150*0.5</f>
         <v>0</v>
       </c>
-      <c r="H150" s="14"/>
-      <c r="I150" s="72"/>
+      <c r="H150" s="14">
+        <v>8</v>
+      </c>
+      <c r="I150" s="72">
+        <v>120</v>
+      </c>
       <c r="J150" s="39"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="94" t="str">
         <f>RIGHT(D151:D268,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23"/>
@@ -5721,174 +5730,168 @@
       <c r="I151" s="72"/>
       <c r="J151" s="39"/>
     </row>
-    <row r="152" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="94" t="str">
-        <f t="shared" ref="A152:A163" si="4">RIGHT(D152:D267,4)</f>
+        <f>RIGHT(D152:D269,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23">
+        <f>E152*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="14"/>
+      <c r="I152" s="72"/>
+      <c r="J152" s="39"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="94" t="str">
+        <f t="shared" ref="A153:A164" si="4">RIGHT(D153:D268,4)</f>
         <v>6313</v>
       </c>
-      <c r="B152" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C152" s="36" t="s">
+      <c r="B153" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="28">
+      <c r="D153" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="23">
+      <c r="E153" s="24"/>
+      <c r="F153" s="23">
         <v>0.9</v>
       </c>
-      <c r="G152" s="23">
-        <f>E152*0.9</f>
+      <c r="G153" s="23">
+        <f>E153*0.9</f>
         <v>0</v>
       </c>
-      <c r="H152" s="14">
+      <c r="H153" s="14">
         <v>9</v>
       </c>
-      <c r="I152" s="72">
+      <c r="I153" s="72">
         <v>120</v>
       </c>
-      <c r="J152" s="39"/>
-    </row>
-    <row r="153" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B153" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="C153" s="74"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="74"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="74"/>
-      <c r="H153" s="74"/>
-      <c r="I153" s="74"/>
-      <c r="J153" s="75"/>
+      <c r="J153" s="39"/>
     </row>
     <row r="154" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>4945</v>
-      </c>
-      <c r="B154" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D154" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E154" s="24"/>
-      <c r="F154" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G154" s="23">
-        <f>E154*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="14">
-        <v>8</v>
-      </c>
-      <c r="I154" s="72">
-        <v>120</v>
-      </c>
-      <c r="J154" s="39"/>
+        <v/>
+      </c>
+      <c r="B154" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="74"/>
+      <c r="I154" s="74"/>
+      <c r="J154" s="75"/>
     </row>
     <row r="155" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="94" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B155" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
-      <c r="H155" s="74"/>
-      <c r="I155" s="74"/>
-      <c r="J155" s="75"/>
-    </row>
-    <row r="156" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4945</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G155" s="23">
+        <f>E155*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="14">
+        <v>8</v>
+      </c>
+      <c r="I155" s="72">
+        <v>120</v>
+      </c>
+      <c r="J155" s="39"/>
+    </row>
+    <row r="156" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>4956</v>
-      </c>
-      <c r="B156" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="C156" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D156" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E156" s="84"/>
-      <c r="F156" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G156" s="85">
-        <f>E156*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I156" s="91">
-        <v>120</v>
-      </c>
-      <c r="J156" s="86"/>
-      <c r="K156" s="87"/>
-    </row>
-    <row r="157" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B156" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="75"/>
+    </row>
+    <row r="157" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>1762</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157" s="33" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B157" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D157" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E157" s="24"/>
-      <c r="F157" s="23">
+      <c r="D157" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E157" s="84"/>
+      <c r="F157" s="85">
         <v>0.42</v>
       </c>
-      <c r="G157" s="23">
+      <c r="G157" s="85">
         <f>E157*0.42</f>
         <v>0</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H157" s="86">
         <v>4.2</v>
       </c>
-      <c r="I157" s="72">
+      <c r="I157" s="91">
         <v>120</v>
       </c>
-      <c r="J157" s="39"/>
-    </row>
-    <row r="158" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J157" s="86"/>
+      <c r="K157" s="87"/>
+    </row>
+    <row r="158" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A158" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
@@ -5906,22 +5909,35 @@
       </c>
       <c r="J158" s="39"/>
     </row>
-    <row r="159" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="94" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B159" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="75"/>
+        <v>1764</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E159" s="24"/>
+      <c r="F159" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G159" s="23">
+        <f>E159*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H159" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I159" s="72">
+        <v>120</v>
+      </c>
+      <c r="J159" s="39"/>
     </row>
     <row r="160" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="94" t="str">
@@ -5929,7 +5945,7 @@
         <v/>
       </c>
       <c r="B160" s="74" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C160" s="74"/>
       <c r="D160" s="74"/>
@@ -5943,130 +5959,137 @@
     <row r="161" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>6004</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D161" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="E161" s="24"/>
-      <c r="F161" s="23">
-        <v>1</v>
-      </c>
-      <c r="G161" s="23">
-        <f>E161*1</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="14">
-        <v>8</v>
-      </c>
-      <c r="I161" s="72">
-        <v>120</v>
-      </c>
-      <c r="J161" s="39"/>
-    </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B161" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="75"/>
+    </row>
+    <row r="162" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>5417</v>
+        <v>6004</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="30" t="s">
-        <v>23</v>
+        <v>167</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="D162" s="68" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G162" s="23">
         <f>E162*1</f>
         <v>0</v>
       </c>
       <c r="H162" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I162" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J162" s="39"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A163" s="94" t="str">
         <f t="shared" si="4"/>
-        <v>6019</v>
+        <v>5417</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="69" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" s="68" t="s">
+        <v>170</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" s="23">
         <f>E163*1</f>
         <v>0</v>
       </c>
       <c r="H163" s="14">
+        <v>6</v>
+      </c>
+      <c r="I163" s="72">
+        <v>90</v>
+      </c>
+      <c r="J163" s="39"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v>6019</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="23">
+        <v>1</v>
+      </c>
+      <c r="G164" s="23">
+        <f>E164*1</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="14">
         <v>12</v>
       </c>
-      <c r="I163" s="72">
+      <c r="I164" s="72">
         <v>120</v>
       </c>
-      <c r="J163" s="39"/>
-    </row>
-    <row r="164" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="77"/>
-      <c r="B164" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="48"/>
-      <c r="E164" s="17">
-        <f>SUM(E5:E163)</f>
+      <c r="J164" s="39"/>
+    </row>
+    <row r="165" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="77"/>
+      <c r="B165" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="17">
+        <f>SUM(E5:E164)</f>
         <v>0</v>
       </c>
-      <c r="F164" s="17">
-        <f>SUM(F10:F163)</f>
-        <v>43.053333333333335</v>
-      </c>
-      <c r="G164" s="17">
-        <f>SUM(G11:G163)</f>
+      <c r="F165" s="17">
+        <f>SUM(F10:F164)</f>
+        <v>43.453333333333326</v>
+      </c>
+      <c r="G165" s="17">
+        <f>SUM(G11:G164)</f>
         <v>0</v>
       </c>
-      <c r="H164" s="17">
-        <f>SUM(H10:H160)</f>
+      <c r="H165" s="17">
+        <f>SUM(H10:H161)</f>
         <v>128.91</v>
       </c>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="53"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="52"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="21"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B166" s="53"/>
       <c r="C166" s="18"/>
       <c r="D166" s="52"/>
@@ -21296,17 +21319,27 @@
       <c r="I1688" s="20"/>
       <c r="J1688" s="21"/>
     </row>
+    <row r="1689" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1689" s="53"/>
+      <c r="C1689" s="18"/>
+      <c r="D1689" s="52"/>
+      <c r="F1689" s="19"/>
+      <c r="G1689" s="19"/>
+      <c r="H1689" s="20"/>
+      <c r="I1689" s="20"/>
+      <c r="J1689" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J165" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B157" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B158" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D161:D163" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D162:D164" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
@@ -21332,24 +21365,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -21360,13 +21393,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -21377,13 +21410,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -21393,17 +21426,17 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -21420,61 +21453,61 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -21485,7 +21518,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -21495,53 +21528,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -21567,40 +21600,40 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C50" s="61"/>
     </row>
@@ -21612,70 +21645,70 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C63" s="81"/>
     </row>
@@ -21686,133 +21719,133 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C86" s="61"/>
     </row>

--- a/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
+++ b/SIMF/чистый бланк/ЗАКАЗ КРЫМ 20,03,25ц-выезд 22,03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23C19A-75DF-42EE-A54F-5E57F55CB42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD743E0-510C-4957-B7D7-7CC5A98847B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>ДОКТОРСКАЯ ГОСТ вар б/о срез 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт.</t>
   </si>
   <si>
     <t>МЯСНАЯ Папа может вар п/о</t>
@@ -758,6 +755,9 @@
   </si>
   <si>
     <t>МОЛОЧНАЯ Останкино вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</t>
   </si>
 </sst>
 </file>
@@ -1947,8 +1947,8 @@
   <dimension ref="A1:M1689"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
+      <pane ySplit="9" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2201,7 @@
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>26</v>
@@ -2331,16 +2331,16 @@
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6426</v>
+        <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="28">
-        <v>1001013956426</v>
+        <v>1001013957231</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23"/>
@@ -2358,7 +2358,7 @@
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>23</v>
@@ -2388,7 +2388,7 @@
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>26</v>
@@ -2418,7 +2418,7 @@
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>23</v>
@@ -2448,7 +2448,7 @@
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>23</v>
@@ -2478,7 +2478,7 @@
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>23</v>
@@ -2502,7 +2502,7 @@
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>26</v>
@@ -2526,7 +2526,7 @@
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>23</v>
@@ -2556,7 +2556,7 @@
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>23</v>
@@ -2586,7 +2586,7 @@
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>26</v>
@@ -2616,7 +2616,7 @@
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>26</v>
@@ -2642,7 +2642,7 @@
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>23</v>
@@ -2666,7 +2666,7 @@
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>23</v>
@@ -2691,7 +2691,7 @@
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>26</v>
@@ -2718,7 +2718,7 @@
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>23</v>
@@ -2748,7 +2748,7 @@
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>23</v>
@@ -2772,7 +2772,7 @@
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>26</v>
@@ -2800,7 +2800,7 @@
         <v>6340</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>26</v>
@@ -2828,7 +2828,7 @@
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>26</v>
@@ -2858,7 +2858,7 @@
         <v/>
       </c>
       <c r="B39" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -2875,7 +2875,7 @@
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>23</v>
@@ -2900,7 +2900,7 @@
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>23</v>
@@ -2925,7 +2925,7 @@
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>26</v>
@@ -2952,7 +2952,7 @@
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>23</v>
@@ -2977,7 +2977,7 @@
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>23</v>
@@ -3002,7 +3002,7 @@
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>23</v>
@@ -3027,7 +3027,7 @@
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>26</v>
@@ -3052,7 +3052,7 @@
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
@@ -3077,7 +3077,7 @@
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>26</v>
@@ -3102,7 +3102,7 @@
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>23</v>
@@ -3126,7 +3126,7 @@
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>26</v>
@@ -3150,7 +3150,7 @@
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>26</v>
@@ -3174,7 +3174,7 @@
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>26</v>
@@ -3198,7 +3198,7 @@
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>26</v>
@@ -3224,7 +3224,7 @@
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>26</v>
@@ -3250,7 +3250,7 @@
         <v>6901</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>26</v>
@@ -3276,7 +3276,7 @@
         <v>6962</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>26</v>
@@ -3302,7 +3302,7 @@
         <v>6303</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>23</v>
@@ -3333,7 +3333,7 @@
         <v>7077</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>26</v>
@@ -3358,7 +3358,7 @@
         <v>7080</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>26</v>
@@ -3388,7 +3388,7 @@
         <v>6762</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>26</v>
@@ -3414,7 +3414,7 @@
         <v>5820</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>23</v>
@@ -3440,7 +3440,7 @@
         <v>7082</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>23</v>
@@ -3464,7 +3464,7 @@
         <v>6764</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>23</v>
@@ -3488,7 +3488,7 @@
         <v>6761</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>23</v>
@@ -3512,7 +3512,7 @@
         <v>6767</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>23</v>
@@ -3536,7 +3536,7 @@
         <v>6765</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>26</v>
@@ -3560,7 +3560,7 @@
         <v>6909</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>26</v>
@@ -3586,7 +3586,7 @@
         <v>6987</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
@@ -3612,7 +3612,7 @@
         <v>7066</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
@@ -3642,7 +3642,7 @@
         <v>6837</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>26</v>
@@ -3668,7 +3668,7 @@
         <v>6661</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>23</v>
@@ -3693,7 +3693,7 @@
         <v>6713</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>26</v>
@@ -3718,7 +3718,7 @@
         <v/>
       </c>
       <c r="B73" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="74"/>
       <c r="D73" s="74"/>
@@ -3735,7 +3735,7 @@
         <v>5698</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="30" t="s">
         <v>23</v>
@@ -3765,7 +3765,7 @@
         <v>6528</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>26</v>
@@ -3789,7 +3789,7 @@
         <v>7059</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>26</v>
@@ -3815,7 +3815,7 @@
         <v>6609</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>26</v>
@@ -3841,7 +3841,7 @@
         <v>7001</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>23</v>
@@ -3867,7 +3867,7 @@
         <v>6527</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>23</v>
@@ -3897,7 +3897,7 @@
         <v/>
       </c>
       <c r="B80" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="74"/>
       <c r="D80" s="74"/>
@@ -3914,7 +3914,7 @@
         <v>7232</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
@@ -3942,7 +3942,7 @@
         <v>6785</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
@@ -3966,7 +3966,7 @@
         <v>7149</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
@@ -3994,7 +3994,7 @@
         <v>6786</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>23</v>
@@ -4018,7 +4018,7 @@
         <v>4903</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>23</v>
@@ -4042,7 +4042,7 @@
         <v>7131</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>23</v>
@@ -4068,7 +4068,7 @@
         <v>7241</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
@@ -4098,7 +4098,7 @@
         <v/>
       </c>
       <c r="B88" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="74"/>
       <c r="D88" s="74"/>
@@ -4115,7 +4115,7 @@
         <v>7154</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
@@ -4143,7 +4143,7 @@
         <v>6793</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
@@ -4167,7 +4167,7 @@
         <v>6795</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
@@ -4191,7 +4191,7 @@
         <v>6807</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
@@ -4215,7 +4215,7 @@
         <v>7236</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
@@ -4245,7 +4245,7 @@
         <v>6787</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
@@ -4269,7 +4269,7 @@
         <v>6788</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>23</v>
@@ -4293,7 +4293,7 @@
         <v>6790</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>23</v>
@@ -4317,7 +4317,7 @@
         <v>7169</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
@@ -4345,7 +4345,7 @@
         <v>6791</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
@@ -4369,7 +4369,7 @@
         <v>7166</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="30" t="s">
         <v>23</v>
@@ -4395,7 +4395,7 @@
         <v>6459</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
@@ -4421,7 +4421,7 @@
         <v>6586</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
@@ -4445,7 +4445,7 @@
         <v>6228</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
@@ -4469,7 +4469,7 @@
         <v>7087</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
@@ -4495,7 +4495,7 @@
         <v>5544</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>23</v>
@@ -4525,7 +4525,7 @@
         <v>6697</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" s="36" t="s">
         <v>26</v>
@@ -4555,7 +4555,7 @@
         <v/>
       </c>
       <c r="B106" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -4572,7 +4572,7 @@
         <v>5706</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
@@ -4602,7 +4602,7 @@
         <v>6454</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
@@ -4632,7 +4632,7 @@
         <v>6222</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
@@ -4656,7 +4656,7 @@
         <v>5931</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
@@ -4686,7 +4686,7 @@
         <v>5708</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>23</v>
@@ -4716,7 +4716,7 @@
         <v>1146</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>23</v>
@@ -4740,7 +4740,7 @@
         <v>6834</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
@@ -4764,7 +4764,7 @@
         <v>6448</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
@@ -4790,7 +4790,7 @@
         <v>6221</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
@@ -4816,7 +4816,7 @@
         <v>5679</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
@@ -4842,7 +4842,7 @@
         <v>4993</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
@@ -4872,7 +4872,7 @@
         <v>7105</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
@@ -4898,7 +4898,7 @@
         <v>7106</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
@@ -4924,7 +4924,7 @@
         <v>7107</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
@@ -4950,7 +4950,7 @@
         <v>3684</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
@@ -4976,7 +4976,7 @@
         <v>5682</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
@@ -5006,7 +5006,7 @@
         <v>4117</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>23</v>
@@ -5036,7 +5036,7 @@
         <v>3680</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>23</v>
@@ -5060,7 +5060,7 @@
         <v>5483</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
@@ -5090,7 +5090,7 @@
         <v>6453</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
@@ -5120,7 +5120,7 @@
         <v/>
       </c>
       <c r="B127" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="74"/>
       <c r="D127" s="74"/>
@@ -5137,7 +5137,7 @@
         <v>6470</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>23</v>
@@ -5161,7 +5161,7 @@
         <v>6495</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>26</v>
@@ -5187,7 +5187,7 @@
         <v>7235</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>26</v>
@@ -5213,7 +5213,7 @@
         <v>6411</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>26</v>
@@ -5239,7 +5239,7 @@
         <v>6866</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>23</v>
@@ -5263,7 +5263,7 @@
         <v>3215</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C133" s="37" t="s">
         <v>26</v>
@@ -5293,7 +5293,7 @@
         <v/>
       </c>
       <c r="B134" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" s="74"/>
       <c r="D134" s="74"/>
@@ -5310,7 +5310,7 @@
         <v>7090</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>26</v>
@@ -5338,7 +5338,7 @@
         <v>4691</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C136" s="35" t="s">
         <v>26</v>
@@ -5364,7 +5364,7 @@
         <v>7187</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>26</v>
@@ -5390,7 +5390,7 @@
         <v>6201</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C138" s="35" t="s">
         <v>26</v>
@@ -5416,7 +5416,7 @@
         <v>6842</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C139" s="35" t="s">
         <v>26</v>
@@ -5442,7 +5442,7 @@
         <v>6492</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140" s="35" t="s">
         <v>26</v>
@@ -5468,7 +5468,7 @@
         <v>6279</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>26</v>
@@ -5494,7 +5494,7 @@
         <v>4786</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>26</v>
@@ -5520,7 +5520,7 @@
         <v>7052</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>23</v>
@@ -5546,7 +5546,7 @@
         <v>7053</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144" s="35" t="s">
         <v>23</v>
@@ -5572,7 +5572,7 @@
         <v>7092</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>26</v>
@@ -5598,7 +5598,7 @@
         <v>7103</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>26</v>
@@ -5624,7 +5624,7 @@
         <v>6919</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>26</v>
@@ -5648,7 +5648,7 @@
         <v/>
       </c>
       <c r="B148" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" s="74"/>
       <c r="D148" s="74"/>
@@ -5665,7 +5665,7 @@
         <v/>
       </c>
       <c r="B149" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" s="74"/>
       <c r="D149" s="74"/>
@@ -5682,7 +5682,7 @@
         <v>6314</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>26</v>
@@ -5712,7 +5712,7 @@
         <v>6155</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>26</v>
@@ -5736,7 +5736,7 @@
         <v>6157</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>26</v>
@@ -5760,7 +5760,7 @@
         <v>6313</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153" s="36" t="s">
         <v>26</v>
@@ -5790,7 +5790,7 @@
         <v/>
       </c>
       <c r="B154" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C154" s="74"/>
       <c r="D154" s="74"/>
@@ -5807,7 +5807,7 @@
         <v>4945</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>26</v>
@@ -5837,7 +5837,7 @@
         <v/>
       </c>
       <c r="B156" s="74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C156" s="74"/>
       <c r="D156" s="74"/>
@@ -5854,7 +5854,7 @@
         <v>4956</v>
       </c>
       <c r="B157" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C157" s="90" t="s">
         <v>26</v>
@@ -5885,7 +5885,7 @@
         <v>1762</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>26</v>
@@ -5915,7 +5915,7 @@
         <v>1764</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159" s="36" t="s">
         <v>26</v>
@@ -5945,7 +5945,7 @@
         <v/>
       </c>
       <c r="B160" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" s="74"/>
       <c r="D160" s="74"/>
@@ -5962,7 +5962,7 @@
         <v/>
       </c>
       <c r="B161" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C161" s="74"/>
       <c r="D161" s="74"/>
@@ -5979,13 +5979,13 @@
         <v>6004</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C162" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
@@ -6009,13 +6009,13 @@
         <v>5417</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C163" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D163" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
@@ -6039,13 +6039,13 @@
         <v>6019</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C164" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23">
@@ -6066,7 +6066,7 @@
     <row r="165" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="77"/>
       <c r="B165" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="48"/>
@@ -21365,78 +21365,78 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="63"/>
     </row>
     <row r="5" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="81"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -21447,134 +21447,134 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -21585,267 +21585,267 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63" s="81"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86" s="61"/>
     </row>
